--- a/InventoryTrackingAutomation/Conf.xlsx
+++ b/InventoryTrackingAutomation/Conf.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development Projects\InventoryTrackingAutomation\InventoryTrackingAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development Projects\From Git\RTBDI_bot\InventoryTrackingAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9120C482-011E-4A12-9BAD-66FEB59B76D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E59FA35-F8FA-4E90-992E-FF7CDC244583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{20C8CBC2-FE26-406D-8848-862DB6598336}"/>
+    <workbookView xWindow="34710" yWindow="3000" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{20C8CBC2-FE26-406D-8848-862DB6598336}"/>
   </bookViews>
   <sheets>
     <sheet name="Devices" sheetId="1" r:id="rId1"/>
-    <sheet name="Credentials" sheetId="2" r:id="rId2"/>
+    <sheet name="Market" sheetId="3" r:id="rId2"/>
+    <sheet name="Credentials" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Devices!$A$1:$C$1</definedName>
@@ -37,8 +38,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{0E301EB8-D8BA-4D9E-90D0-81C23D651293}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>fed1</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="1350">
   <si>
     <t>SKU</t>
   </si>
@@ -560,13 +584,3541 @@
   </si>
   <si>
     <t>TECHNOOR2025</t>
+  </si>
+  <si>
+    <t>BDI ID</t>
+  </si>
+  <si>
+    <t>Store Name</t>
+  </si>
+  <si>
+    <t>Store Address</t>
+  </si>
+  <si>
+    <t>TECH1255</t>
+  </si>
+  <si>
+    <t>1255 W MAIN STREET</t>
+  </si>
+  <si>
+    <t>1255 W MAIN STREET - MESA, AZ 85201</t>
+  </si>
+  <si>
+    <t>TECH12801</t>
+  </si>
+  <si>
+    <t>W BELL RD</t>
+  </si>
+  <si>
+    <t>12801 W Bell  Rd,  Ste 133,  Surprise, AZ 85378</t>
+  </si>
+  <si>
+    <t>TECH1326</t>
+  </si>
+  <si>
+    <t>E FLORENCE BLVD</t>
+  </si>
+  <si>
+    <t>1326 E  Florence Blvd , Casa Grande, AZ 85122</t>
+  </si>
+  <si>
+    <t>TECH13915</t>
+  </si>
+  <si>
+    <t>N DYSART RD</t>
+  </si>
+  <si>
+    <t>13915 N Dysart  El Mirage, AZ 85335</t>
+  </si>
+  <si>
+    <t>TECH1954</t>
+  </si>
+  <si>
+    <t>1954 W BROADWAY RD</t>
+  </si>
+  <si>
+    <t>1954 W BROADWAY RD STE 108 - MESA, AZ 85202</t>
+  </si>
+  <si>
+    <t>TECH2601AZ</t>
+  </si>
+  <si>
+    <t>2601 E BELL RD</t>
+  </si>
+  <si>
+    <t>2601 E BELL RD STE 15 - PHOENIX, AZ 85032</t>
+  </si>
+  <si>
+    <t>TECH2837</t>
+  </si>
+  <si>
+    <t>N 75TH AVE</t>
+  </si>
+  <si>
+    <t>2837 N  75th Ave, #F3 , Phoenix, AZ 85033</t>
+  </si>
+  <si>
+    <t>TECH301</t>
+  </si>
+  <si>
+    <t>3501 W DUNLAP AVE</t>
+  </si>
+  <si>
+    <t>3501 W DUNLAP AVE STE 9 - PHOENIX, AZ 85051</t>
+  </si>
+  <si>
+    <t>TECH3305</t>
+  </si>
+  <si>
+    <t>3305 E GREENWAY RD</t>
+  </si>
+  <si>
+    <t>3305 E GREENWAY RD STE 10 - PHOENIX, AZ 85032</t>
+  </si>
+  <si>
+    <t>TECH3458</t>
+  </si>
+  <si>
+    <t>W VAN BUREN ST</t>
+  </si>
+  <si>
+    <t>3458 W  Van  Buren  St  STE 103, Phoenix, AZ  85009</t>
+  </si>
+  <si>
+    <t>TECH3544</t>
+  </si>
+  <si>
+    <t>8129 NORTH 35TH AVENUE</t>
+  </si>
+  <si>
+    <t>8129 North  35th  Avenue Ste  A2,  Phoenix, AZ  85051</t>
+  </si>
+  <si>
+    <t>TECH4010</t>
+  </si>
+  <si>
+    <t>N 83RD AVE</t>
+  </si>
+  <si>
+    <t>4010 N83 rd Ave, STE 103, Phoenix, AZ  85033</t>
+  </si>
+  <si>
+    <t>TECH4105</t>
+  </si>
+  <si>
+    <t>N 51ST AVE</t>
+  </si>
+  <si>
+    <t>4105 N 51st  Ave  STE  105, Phoenix, AZ  85031</t>
+  </si>
+  <si>
+    <t>TECH4224</t>
+  </si>
+  <si>
+    <t>4224 S CENTRAL AVE</t>
+  </si>
+  <si>
+    <t>4224 S Central Ave, Phoenix, AZ 85040</t>
+  </si>
+  <si>
+    <t>TECH5834</t>
+  </si>
+  <si>
+    <t>5834 S CENTRAL AVE</t>
+  </si>
+  <si>
+    <t>5834 S Central Ave Ste A, Phoenix, AZ 85040</t>
+  </si>
+  <si>
+    <t>TECH6260</t>
+  </si>
+  <si>
+    <t>S 35TH AVE</t>
+  </si>
+  <si>
+    <t>6260 S 35th Ave, Phoenix, AZ 85041</t>
+  </si>
+  <si>
+    <t>TECH6430</t>
+  </si>
+  <si>
+    <t>6430 W GLENDALE AVE</t>
+  </si>
+  <si>
+    <t>6430 W Glendale Ave, Phoenix, AZ 85301</t>
+  </si>
+  <si>
+    <t>TECH777</t>
+  </si>
+  <si>
+    <t>N ARIZONA AVE</t>
+  </si>
+  <si>
+    <t>777 N Arizona Ave Ste 11, Chandler, AZ 85225</t>
+  </si>
+  <si>
+    <t>TECH1006</t>
+  </si>
+  <si>
+    <t>1006 N DAVIS RD</t>
+  </si>
+  <si>
+    <t>1006 N Davis Rd, Salinas, CA ,93907-1944</t>
+  </si>
+  <si>
+    <t>TECH1272</t>
+  </si>
+  <si>
+    <t>1272 MAIN ST</t>
+  </si>
+  <si>
+    <t>1272 Main St   Watsonville CA  95076-3734</t>
+  </si>
+  <si>
+    <t>TECH1400</t>
+  </si>
+  <si>
+    <t>1400B FREEDOM BLVD</t>
+  </si>
+  <si>
+    <t>1400B Freedom Blvd Ste 101, Watsonville, CA ,95076-2743</t>
+  </si>
+  <si>
+    <t>TECH1562</t>
+  </si>
+  <si>
+    <t>1562 NORTHRIDGE SHOPPING CTR</t>
+  </si>
+  <si>
+    <t>1562 Northridge Shopping Ctr   Salinas CA  93906-2022</t>
+  </si>
+  <si>
+    <t>TECH231</t>
+  </si>
+  <si>
+    <t>231 SAN BENITO ST</t>
+  </si>
+  <si>
+    <t>231 San Benito St, Hollister, CA ,95023-3945</t>
+  </si>
+  <si>
+    <t>TECH280</t>
+  </si>
+  <si>
+    <t>280 E 10TH ST</t>
+  </si>
+  <si>
+    <t>280 E 10th St Ste G, Gilroy,CA ,95020-6581</t>
+  </si>
+  <si>
+    <t>TECH30E</t>
+  </si>
+  <si>
+    <t>30 E 5TH ST</t>
+  </si>
+  <si>
+    <t>30 E 5th St  Ste H, Watsonville, CA ,95076-4358</t>
+  </si>
+  <si>
+    <t>TECH626</t>
+  </si>
+  <si>
+    <t>626 WILLIAMS RD</t>
+  </si>
+  <si>
+    <t>626 Williams Rd Ste A   Salinas CA  93905-1938</t>
+  </si>
+  <si>
+    <t>TECH831</t>
+  </si>
+  <si>
+    <t>628 OCEAN ST</t>
+  </si>
+  <si>
+    <t>628 OCEAN ST - SANTA CRUZ, CA 95060</t>
+  </si>
+  <si>
+    <t>TECH1125</t>
+  </si>
+  <si>
+    <t>E COLFAX AVE</t>
+  </si>
+  <si>
+    <t>1125 E COLFAX  AVE,  DENVER, CO 80218</t>
+  </si>
+  <si>
+    <t>TECH11920</t>
+  </si>
+  <si>
+    <t>NORTHGLENN</t>
+  </si>
+  <si>
+    <t>11928  WASHINGTON  ST  DENVER, CO 80233-1141</t>
+  </si>
+  <si>
+    <t>TECH12104</t>
+  </si>
+  <si>
+    <t>PEORIA</t>
+  </si>
+  <si>
+    <t>12104 E MISSISSIPPI AVE AURORA, CO 80012-3454 US</t>
+  </si>
+  <si>
+    <t>TECH1235</t>
+  </si>
+  <si>
+    <t>S FEDERAL BLVD</t>
+  </si>
+  <si>
+    <t>1235 S FEDERAL BLVD  DENVER, CO 80219-4105</t>
+  </si>
+  <si>
+    <t>TECH1385</t>
+  </si>
+  <si>
+    <t>S SHERIDAN</t>
+  </si>
+  <si>
+    <t>1385 S Sheridan Blvd Lakewood, CO 80232-5958 US</t>
+  </si>
+  <si>
+    <t>TECH1555</t>
+  </si>
+  <si>
+    <t>HAVANA</t>
+  </si>
+  <si>
+    <t>1555 S HAVANA ST,UNIT H AURORA, CO 80012-5034 US</t>
+  </si>
+  <si>
+    <t>TECH1806</t>
+  </si>
+  <si>
+    <t>EAST BRIDGE</t>
+  </si>
+  <si>
+    <t>1806 E BRIDGE ST BRIGHTON, CO 80601-1936</t>
+  </si>
+  <si>
+    <t>TECH187</t>
+  </si>
+  <si>
+    <t>LAFAYETTE</t>
+  </si>
+  <si>
+    <t>545 W SOUTH  BOULDER RD  LAFAYETTE, CO 80026-2091</t>
+  </si>
+  <si>
+    <t>TECH1927</t>
+  </si>
+  <si>
+    <t>1927 W UINTAH ST</t>
+  </si>
+  <si>
+    <t>1927 W UINTAH  ST COLORADO SPRINGS, CO 80904-2739</t>
+  </si>
+  <si>
+    <t>TECH3531</t>
+  </si>
+  <si>
+    <t>LOGAN</t>
+  </si>
+  <si>
+    <t>3531 S Logan St Ste C Englewood, CO 80113-3700 US</t>
+  </si>
+  <si>
+    <t>TECH3751</t>
+  </si>
+  <si>
+    <t>TOWER RD</t>
+  </si>
+  <si>
+    <t>3751 TOWER RD  AURORA, CO 80011-3522</t>
+  </si>
+  <si>
+    <t>TECH4391</t>
+  </si>
+  <si>
+    <t>FEDERAL BLVD</t>
+  </si>
+  <si>
+    <t>4391 FEDERAL BLVD DENVER, CO 80211-1641</t>
+  </si>
+  <si>
+    <t>TECH5135</t>
+  </si>
+  <si>
+    <t>CHAMBERS RD</t>
+  </si>
+  <si>
+    <t>5135 CHAMBERS RD DENVER, CO 80239-6702</t>
+  </si>
+  <si>
+    <t>TECH582</t>
+  </si>
+  <si>
+    <t>ALAMEDA</t>
+  </si>
+  <si>
+    <t>582 S CHAMBERS RD AURORA, CO 80017-3606</t>
+  </si>
+  <si>
+    <t>TECH590</t>
+  </si>
+  <si>
+    <t>DAYTON ST</t>
+  </si>
+  <si>
+    <t>590 DAYTON ST - AURORA, CO 80010</t>
+  </si>
+  <si>
+    <t>TECH5966</t>
+  </si>
+  <si>
+    <t>E 64TH AVE</t>
+  </si>
+  <si>
+    <t>5966 E 64TH AVE COMMERCE CITY, CO 80022-3317</t>
+  </si>
+  <si>
+    <t>TECH7155</t>
+  </si>
+  <si>
+    <t>7155 W COLFAX AVE</t>
+  </si>
+  <si>
+    <t>7155 W Colfax Ave Lakewood, CO 80214-5410 US</t>
+  </si>
+  <si>
+    <t>TECH7525</t>
+  </si>
+  <si>
+    <t>E ILIFF AVE</t>
+  </si>
+  <si>
+    <t>7525 E ILIFF AVE DENVER, CO 80231-5312</t>
+  </si>
+  <si>
+    <t>TECH757</t>
+  </si>
+  <si>
+    <t>SANTA FE</t>
+  </si>
+  <si>
+    <t>757 E 20th Ave, Denver, CO 80205</t>
+  </si>
+  <si>
+    <t>TECH8998</t>
+  </si>
+  <si>
+    <t>YOSEMITE</t>
+  </si>
+  <si>
+    <t>8998 E Hampden Ave Denver, CO 80231-4911 US</t>
+  </si>
+  <si>
+    <t>TECH8BRI</t>
+  </si>
+  <si>
+    <t>BRIGHTON</t>
+  </si>
+  <si>
+    <t>8 N MAIN ST BRIGHTON, CO 80601-1625</t>
+  </si>
+  <si>
+    <t>TECH9797</t>
+  </si>
+  <si>
+    <t>9797 W COLFAX AVE</t>
+  </si>
+  <si>
+    <t>9797 W Colfax Ave Lakewood, CO 80215-3924 US</t>
+  </si>
+  <si>
+    <t>TECH1221</t>
+  </si>
+  <si>
+    <t>W AIRPORT FWY</t>
+  </si>
+  <si>
+    <t>1221 W AIRPORT  FWY  IRVING, TX 75062-6296</t>
+  </si>
+  <si>
+    <t>TECH14902</t>
+  </si>
+  <si>
+    <t>PRESTON RD</t>
+  </si>
+  <si>
+    <t>14902 PRESTON RD STE 942 DALLAS TX 75254</t>
+  </si>
+  <si>
+    <t>TECH1711</t>
+  </si>
+  <si>
+    <t>NORMAN</t>
+  </si>
+  <si>
+    <t>1711 NORMAN DR DALLAS, TX 75211-8832</t>
+  </si>
+  <si>
+    <t>TECH18110</t>
+  </si>
+  <si>
+    <t>MIDWAY RD</t>
+  </si>
+  <si>
+    <t>18110 MIDWAY RD DALLAS, TX 75287-6632</t>
+  </si>
+  <si>
+    <t>TECH2223</t>
+  </si>
+  <si>
+    <t>SINGLETON BLVD</t>
+  </si>
+  <si>
+    <t>2223 SINGLETON  BLVD  STE 134, DALLAS TX 75212</t>
+  </si>
+  <si>
+    <t>TECH2410</t>
+  </si>
+  <si>
+    <t>DUNCANVILLE</t>
+  </si>
+  <si>
+    <t>2410 DUNCANVILLE RD DALLAS, TX 75211</t>
+  </si>
+  <si>
+    <t>TECH259</t>
+  </si>
+  <si>
+    <t>E GRAUWYLER RD</t>
+  </si>
+  <si>
+    <t>259 E GRAUWYLER RD IRVING, TX 75061-2639</t>
+  </si>
+  <si>
+    <t>TECH2626</t>
+  </si>
+  <si>
+    <t>WESTMORELAND</t>
+  </si>
+  <si>
+    <t>2626 S WESTMORELAND RD  DALLAS, TX 75211-8904</t>
+  </si>
+  <si>
+    <t>TECH2632</t>
+  </si>
+  <si>
+    <t>HAMPTON</t>
+  </si>
+  <si>
+    <t>2632 S  HAMPTON RD  DALLAS, TX 75224-2326</t>
+  </si>
+  <si>
+    <t>TECH3206</t>
+  </si>
+  <si>
+    <t>W DAVIS ST</t>
+  </si>
+  <si>
+    <t>3206 W  DAVIS  ST DALLAS,  TX  75211-2922</t>
+  </si>
+  <si>
+    <t>TECH3318</t>
+  </si>
+  <si>
+    <t>ELSIE FAYE HEGGINS ST</t>
+  </si>
+  <si>
+    <t>3318 ELSIE FAYE HEGGINS  ST,  DALLAS TX 75215</t>
+  </si>
+  <si>
+    <t>TECH3600</t>
+  </si>
+  <si>
+    <t>3600 W PIONEER DR</t>
+  </si>
+  <si>
+    <t>3600 W PIONEER DR IRVING, TX 75061-1546</t>
+  </si>
+  <si>
+    <t>TECH383</t>
+  </si>
+  <si>
+    <t>383 HUFFINES BLVD</t>
+  </si>
+  <si>
+    <t>383 HUFFINES BLVD THE COLONY, TX 75056-9548</t>
+  </si>
+  <si>
+    <t>TECH4290</t>
+  </si>
+  <si>
+    <t>4290 S BELT LINE RD</t>
+  </si>
+  <si>
+    <t>4290 S BELT LINE RD BALCH SPRINGS, TX 75180-3147</t>
+  </si>
+  <si>
+    <t>TECH4385</t>
+  </si>
+  <si>
+    <t>4385 S WESTMORELAND RD</t>
+  </si>
+  <si>
+    <t>4385 S WESTMORELAND  RD  DALLAS, TX 75237-1006</t>
+  </si>
+  <si>
+    <t>TECH521</t>
+  </si>
+  <si>
+    <t>S BELT LINE RD</t>
+  </si>
+  <si>
+    <t>609 S BELT LINE RD IRVING, TX  75060-2110</t>
+  </si>
+  <si>
+    <t>TECH5509</t>
+  </si>
+  <si>
+    <t>E GRAND AVE</t>
+  </si>
+  <si>
+    <t>5509 E GRAND AVE DALLAS, TX 75223-1619</t>
+  </si>
+  <si>
+    <t>TECH8702</t>
+  </si>
+  <si>
+    <t>S LANCASTER</t>
+  </si>
+  <si>
+    <t>8702 S LANCASTER  RD  STE  120, DALLAS TX 75241</t>
+  </si>
+  <si>
+    <t>TECH100</t>
+  </si>
+  <si>
+    <t>W PIONEER PKWY</t>
+  </si>
+  <si>
+    <t>100 W PIONEER  PKWY  ARLINGTON, TX 76010-6131</t>
+  </si>
+  <si>
+    <t>TECH1000</t>
+  </si>
+  <si>
+    <t>W BERRY</t>
+  </si>
+  <si>
+    <t>1000 W BERRY ST  FORT  WORTH, TX 76110-3535</t>
+  </si>
+  <si>
+    <t>TECH1100</t>
+  </si>
+  <si>
+    <t>BRIDGEWOOD DR</t>
+  </si>
+  <si>
+    <t>1100 BRIDGEWOOD  DR  FORT WORTH, TX 76112-0809</t>
+  </si>
+  <si>
+    <t>TECH1201</t>
+  </si>
+  <si>
+    <t>MLK</t>
+  </si>
+  <si>
+    <t>1201 MARTIN LUTHER KING FWY  FORT WORTH, TX 76104-5557</t>
+  </si>
+  <si>
+    <t>TECH1628</t>
+  </si>
+  <si>
+    <t>W RANDOL MILL RD</t>
+  </si>
+  <si>
+    <t>1628 W RANDOL MILL RD ARLINGTON, TX 76012-3035</t>
+  </si>
+  <si>
+    <t>TECH2544</t>
+  </si>
+  <si>
+    <t>2544 E ABRAM ST</t>
+  </si>
+  <si>
+    <t>2544 E  ABRAM  ST  ARLINGTON, TX 76010-1300</t>
+  </si>
+  <si>
+    <t>TECH2601</t>
+  </si>
+  <si>
+    <t>LANCASTER</t>
+  </si>
+  <si>
+    <t>2601 E  LANCASTER  AVE  FORT  WORTH, TX 76103-2801</t>
+  </si>
+  <si>
+    <t>TECH2621</t>
+  </si>
+  <si>
+    <t>2621 AZLE AVE</t>
+  </si>
+  <si>
+    <t>2621 AZLE AVE, FORT WORTH, TX 76106-5102</t>
+  </si>
+  <si>
+    <t>TECH2737</t>
+  </si>
+  <si>
+    <t>8TH AVE</t>
+  </si>
+  <si>
+    <t>2737 8TH AVE FORT WORTH, TX 76110-3041</t>
+  </si>
+  <si>
+    <t>TECH2755</t>
+  </si>
+  <si>
+    <t>ELLIS</t>
+  </si>
+  <si>
+    <t>2755 ELLIS  AVE FORT WORTH, TX 76164-7131</t>
+  </si>
+  <si>
+    <t>TECH2800</t>
+  </si>
+  <si>
+    <t>2800 S COOPER</t>
+  </si>
+  <si>
+    <t>2800 S COOPER ST ARLINGTON, TX 76015-2310</t>
+  </si>
+  <si>
+    <t>TECH2840</t>
+  </si>
+  <si>
+    <t>MILLER AVE</t>
+  </si>
+  <si>
+    <t>2840 MILLER AVE FORT WORTH, TX 76105-4133</t>
+  </si>
+  <si>
+    <t>TECH305</t>
+  </si>
+  <si>
+    <t>NORTHSIDE</t>
+  </si>
+  <si>
+    <t>305 W NORTHSIDE DR FORT WORTH, TX 76164-9123</t>
+  </si>
+  <si>
+    <t>TECH4059</t>
+  </si>
+  <si>
+    <t>HEMPHILL STREET</t>
+  </si>
+  <si>
+    <t>4059 HEMPHILL ST FORT WORTH, TX 76110-6255</t>
+  </si>
+  <si>
+    <t>TECH4078</t>
+  </si>
+  <si>
+    <t>4078 E LANCASTER AVE</t>
+  </si>
+  <si>
+    <t>4078 E LANCASTER AVE FORT WORTH, TX 76103-3641</t>
+  </si>
+  <si>
+    <t>TECH601</t>
+  </si>
+  <si>
+    <t>E ALLEN AVE</t>
+  </si>
+  <si>
+    <t>601 E ALLEN AVE FORT WORTH, TX 76104-5075</t>
+  </si>
+  <si>
+    <t>TECH6109</t>
+  </si>
+  <si>
+    <t>6109 S COOPER</t>
+  </si>
+  <si>
+    <t>6109 S COOPER ST ARLINGTON, TX 76001-5814</t>
+  </si>
+  <si>
+    <t>TECH7820</t>
+  </si>
+  <si>
+    <t>SOUTH FWY</t>
+  </si>
+  <si>
+    <t>7820 SOUTH FWY FORT WORTH, TX 76134-4661</t>
+  </si>
+  <si>
+    <t>TECH900</t>
+  </si>
+  <si>
+    <t>900 W ROSEDALE ST STE B</t>
+  </si>
+  <si>
+    <t>900 W ROSEDALE ST FORT WORTH, TX 76104-4681</t>
+  </si>
+  <si>
+    <t>TECH11633</t>
+  </si>
+  <si>
+    <t>11633 HARRY HINES</t>
+  </si>
+  <si>
+    <t>11633 HARRY HINES BLVD  DALLAS, TX 75229-2290</t>
+  </si>
+  <si>
+    <t>TECH1714</t>
+  </si>
+  <si>
+    <t>PRECINCT LINE ROAD</t>
+  </si>
+  <si>
+    <t>1714 PRECINCT LINE RD HURST, TX 76054-3180</t>
+  </si>
+  <si>
+    <t>TECH190</t>
+  </si>
+  <si>
+    <t>E. STACY RD</t>
+  </si>
+  <si>
+    <t>190 E STACY RD ALLEN, TX 75002-8738</t>
+  </si>
+  <si>
+    <t>TECH1921</t>
+  </si>
+  <si>
+    <t>N. TOWN EAST BLVD</t>
+  </si>
+  <si>
+    <t>1921 N TOWN EAST BLVD  MESQUITE, TX 75150-4035</t>
+  </si>
+  <si>
+    <t>TECH2403</t>
+  </si>
+  <si>
+    <t>2209 N. STORY RD</t>
+  </si>
+  <si>
+    <t>2209 N. Story Rd Irving, TX 75062</t>
+  </si>
+  <si>
+    <t>TECH321</t>
+  </si>
+  <si>
+    <t>321 W BEDFORD EULESS RD</t>
+  </si>
+  <si>
+    <t>321 W BEDFORD EULESS RD HURST, TX 76053-4010</t>
+  </si>
+  <si>
+    <t>TECH3300</t>
+  </si>
+  <si>
+    <t>K. AVENUE</t>
+  </si>
+  <si>
+    <t>3300 K AVE PLANO, TX 75074-2339</t>
+  </si>
+  <si>
+    <t>TECH3338</t>
+  </si>
+  <si>
+    <t>3338 BROADWAY</t>
+  </si>
+  <si>
+    <t>3338 BROADWAY BLVD GARLAND, TX 75043-1584</t>
+  </si>
+  <si>
+    <t>TECH5010</t>
+  </si>
+  <si>
+    <t>S. HULEN</t>
+  </si>
+  <si>
+    <t>5010 S HULEN ST FORT WORTH, TX 76132-1901</t>
+  </si>
+  <si>
+    <t>TECH5739</t>
+  </si>
+  <si>
+    <t>CROWLEY</t>
+  </si>
+  <si>
+    <t>5739 CROWLEY RD FORT WORTH, TX 76134-1003</t>
+  </si>
+  <si>
+    <t>TECH5910</t>
+  </si>
+  <si>
+    <t>AZLE AVE</t>
+  </si>
+  <si>
+    <t>5910 AZLE AVE FORT WORTH, TX 76106-3588</t>
+  </si>
+  <si>
+    <t>TECH800</t>
+  </si>
+  <si>
+    <t>800 W PIPELINE RD</t>
+  </si>
+  <si>
+    <t>800 W PIPELINE RD HURST, TX 76053-4866</t>
+  </si>
+  <si>
+    <t>TECH811</t>
+  </si>
+  <si>
+    <t>NE ALSBURY BLVD</t>
+  </si>
+  <si>
+    <t>811 NE ALSBURY BLVD BURLESON, TX 76028-2666</t>
+  </si>
+  <si>
+    <t>TECH818</t>
+  </si>
+  <si>
+    <t>E. ABRAM ST</t>
+  </si>
+  <si>
+    <t>818 E ABRAM ST, ARLINGTON, TX 76010-1209</t>
+  </si>
+  <si>
+    <t>TECH903S</t>
+  </si>
+  <si>
+    <t>903 S MAIN ST</t>
+  </si>
+  <si>
+    <t>903 S MAIN ST, WEATHERFORD, TX 76086-5355</t>
+  </si>
+  <si>
+    <t>TECH1021</t>
+  </si>
+  <si>
+    <t>1021 MACDONALD</t>
+  </si>
+  <si>
+    <t>1021 MACDONALD AVE - RICHMOND, CA 94801</t>
+  </si>
+  <si>
+    <t>TECH1029</t>
+  </si>
+  <si>
+    <t>1029 ARNOLD</t>
+  </si>
+  <si>
+    <t>1029 ARNOLD DR SUITE 7 - MARTINEZ, CA 94553</t>
+  </si>
+  <si>
+    <t>TECH1435</t>
+  </si>
+  <si>
+    <t>1435 FRUITVALE</t>
+  </si>
+  <si>
+    <t>1435 FRUITVALE AVE - OAKLAND, CA 94601</t>
+  </si>
+  <si>
+    <t>TECH15598</t>
+  </si>
+  <si>
+    <t>15598 HESPERIAN BLVD</t>
+  </si>
+  <si>
+    <t>15598 HESPERIAN BLVD - SAN LORENZO, CA 94580</t>
+  </si>
+  <si>
+    <t>TECH1592</t>
+  </si>
+  <si>
+    <t>1592 FITZGERALD</t>
+  </si>
+  <si>
+    <t>1592 FITZGERALD DR - PINOLE, CA 94564</t>
+  </si>
+  <si>
+    <t>TECH1811</t>
+  </si>
+  <si>
+    <t>1811 PARK</t>
+  </si>
+  <si>
+    <t>1811 PARK BLVD - OAKLAND, CA 94606</t>
+  </si>
+  <si>
+    <t>TECH2200</t>
+  </si>
+  <si>
+    <t>2200 EASTRIDGE LOOP</t>
+  </si>
+  <si>
+    <t>2200 EASTRIDGE LOOP STE 2041 - SAN JOSE, CA 95122</t>
+  </si>
+  <si>
+    <t>TECH2330</t>
+  </si>
+  <si>
+    <t>2330 MACDONALD</t>
+  </si>
+  <si>
+    <t>2330 MACDONALD AVE - RICHMOND, CA 94804</t>
+  </si>
+  <si>
+    <t>TECH311</t>
+  </si>
+  <si>
+    <t>311 N CAPITOL AVE</t>
+  </si>
+  <si>
+    <t>311 N CAPITOL AVE STE F - SAN JOSE, CA 95133</t>
+  </si>
+  <si>
+    <t>TECH9711</t>
+  </si>
+  <si>
+    <t>9711 INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>9711 INTERNATIONAL BOULEVARD - OAKLAND, CA 94603</t>
+  </si>
+  <si>
+    <t>TECH1208</t>
+  </si>
+  <si>
+    <t>COLUMBUS RD</t>
+  </si>
+  <si>
+    <t>1208 COLUMBUS RD UNIT 2 - DEMING, NM 88030</t>
+  </si>
+  <si>
+    <t>TECH125</t>
+  </si>
+  <si>
+    <t>N GLENWOOD ST</t>
+  </si>
+  <si>
+    <t>125 N Glenwood St Ste B, El Paso, TX 79905</t>
+  </si>
+  <si>
+    <t>TECH1300</t>
+  </si>
+  <si>
+    <t>1300 EL PASEO RD</t>
+  </si>
+  <si>
+    <t>1300 EL PASEO RD SPC E1 - LAS CRUCES, NM 88001</t>
+  </si>
+  <si>
+    <t>TECH1455</t>
+  </si>
+  <si>
+    <t>1455 HICKORY</t>
+  </si>
+  <si>
+    <t>1455 HICKORY DR - LAS CRUCES, NM 88005</t>
+  </si>
+  <si>
+    <t>TECH1855</t>
+  </si>
+  <si>
+    <t>E LOHMAN</t>
+  </si>
+  <si>
+    <t>1855 E Lohman Ave Ste C, Las Cruces, NM 88001</t>
+  </si>
+  <si>
+    <t>TECH201</t>
+  </si>
+  <si>
+    <t>S AMERICAS AVE</t>
+  </si>
+  <si>
+    <t>201 S Americas Ave Ste 101, El Paso, TX 79907</t>
+  </si>
+  <si>
+    <t>TECH2521</t>
+  </si>
+  <si>
+    <t>2521 N MAIN ST</t>
+  </si>
+  <si>
+    <t>2521 N Main St # 2, Las Cruces, NM, 880012</t>
+  </si>
+  <si>
+    <t>TECH421S</t>
+  </si>
+  <si>
+    <t>S STANTON ST</t>
+  </si>
+  <si>
+    <t>421 S Stanton St  Ste A, El Paso, TX 79901</t>
+  </si>
+  <si>
+    <t>TECH525</t>
+  </si>
+  <si>
+    <t>525 E MADRID AVE</t>
+  </si>
+  <si>
+    <t>525 E MADRID AVE STE 7 - LAS CRUCES, NM 88001</t>
+  </si>
+  <si>
+    <t>TECH5985</t>
+  </si>
+  <si>
+    <t>N MESA ST</t>
+  </si>
+  <si>
+    <t>5985 N Mesa St Ste A, El Paso, TX 79912</t>
+  </si>
+  <si>
+    <t>TECH721</t>
+  </si>
+  <si>
+    <t>S OREGON ST</t>
+  </si>
+  <si>
+    <t>721 S Oregon St Ste B, El Paso, TX 79901</t>
+  </si>
+  <si>
+    <t>TECH8899</t>
+  </si>
+  <si>
+    <t>ALAMEDA AVE</t>
+  </si>
+  <si>
+    <t>8899 Alameda  Ave Ste 103, El Paso, TX 79907</t>
+  </si>
+  <si>
+    <t>TECH394</t>
+  </si>
+  <si>
+    <t>YONGE ST</t>
+  </si>
+  <si>
+    <t>394 S YONGE ST ORMOND BEACH, FL 32174-6243</t>
+  </si>
+  <si>
+    <t>TECH1012</t>
+  </si>
+  <si>
+    <t>EDGEBROOK DR</t>
+  </si>
+  <si>
+    <t>1012 EDGEBROOK DR HOUSTON, TX 77034-1802</t>
+  </si>
+  <si>
+    <t>TECH10757</t>
+  </si>
+  <si>
+    <t>10757 GULF FRWY</t>
+  </si>
+  <si>
+    <t>10757 GULF  FWY HOUSTON, TX 77034-1857</t>
+  </si>
+  <si>
+    <t>TECH1207</t>
+  </si>
+  <si>
+    <t>WAYSIDE DR</t>
+  </si>
+  <si>
+    <t>1207 WAYSIDE DR HOUSTON, TX 77011-2523</t>
+  </si>
+  <si>
+    <t>TECH1213</t>
+  </si>
+  <si>
+    <t>PASADENA</t>
+  </si>
+  <si>
+    <t>1213 MAIN ST PASADENA, TX 77506-4506</t>
+  </si>
+  <si>
+    <t>TECH14636</t>
+  </si>
+  <si>
+    <t>WOODFOREST</t>
+  </si>
+  <si>
+    <t>14636 WOODFOREST BLVD HOUSTON, TX 77015-3144</t>
+  </si>
+  <si>
+    <t>TECH1533</t>
+  </si>
+  <si>
+    <t>1533 RICHEY ST</t>
+  </si>
+  <si>
+    <t>1533 RICHEY ST PASADENA, TX 77502-1845</t>
+  </si>
+  <si>
+    <t>TECH1641</t>
+  </si>
+  <si>
+    <t>1641 PASADENA BLVD</t>
+  </si>
+  <si>
+    <t>1641 PASADENA BLVD PASADENA, TX 77502-2441</t>
+  </si>
+  <si>
+    <t>TECH2853</t>
+  </si>
+  <si>
+    <t>2853 S RICHEY ST</t>
+  </si>
+  <si>
+    <t>2853 S RICHEY ST HOUSTON, TX 77017-7215</t>
+  </si>
+  <si>
+    <t>TECH3316</t>
+  </si>
+  <si>
+    <t>3316 SHAVER ST</t>
+  </si>
+  <si>
+    <t>3316 SHAVER ST PASADENA, TX 77504-1397</t>
+  </si>
+  <si>
+    <t>TECH3809</t>
+  </si>
+  <si>
+    <t>3809 SHAVER ST</t>
+  </si>
+  <si>
+    <t>3809 SHAVER ST PASADENA, TX 77504-2754</t>
+  </si>
+  <si>
+    <t>TECH4122</t>
+  </si>
+  <si>
+    <t>4122 TELEPHONE RD</t>
+  </si>
+  <si>
+    <t>4122 TELEPHONE RD HOUSTON, TX 77087-1348</t>
+  </si>
+  <si>
+    <t>TECH7030</t>
+  </si>
+  <si>
+    <t>MONROE RD</t>
+  </si>
+  <si>
+    <t>7030 MONROE RD HOUSTON, TX 77061-2450</t>
+  </si>
+  <si>
+    <t>TECH9617A</t>
+  </si>
+  <si>
+    <t>SPENCER HWY</t>
+  </si>
+  <si>
+    <t>9617 SPENCER HWY, LA PORTE, TX 77571-3882</t>
+  </si>
+  <si>
+    <t>TECH9715</t>
+  </si>
+  <si>
+    <t>9715 TELEPHONE RD</t>
+  </si>
+  <si>
+    <t>9715 TELEPHONE RD HOUSTON, TX 77075-2056</t>
+  </si>
+  <si>
+    <t>TECH113</t>
+  </si>
+  <si>
+    <t>HUMBLE</t>
+  </si>
+  <si>
+    <t>113 1ST ST W HUMBLE, TX 77338-3612</t>
+  </si>
+  <si>
+    <t>TECH12315</t>
+  </si>
+  <si>
+    <t>HUFFMAN</t>
+  </si>
+  <si>
+    <t>12315 FM 1960 HUFFMAN, TX 77336-2450</t>
+  </si>
+  <si>
+    <t>TECH12920</t>
+  </si>
+  <si>
+    <t>WILLOW</t>
+  </si>
+  <si>
+    <t>12920 WILLOW CHASE DR HOUSTON, TX 77070-5641</t>
+  </si>
+  <si>
+    <t>TECH1418</t>
+  </si>
+  <si>
+    <t>CONROE 2</t>
+  </si>
+  <si>
+    <t>1418 N LOOP 336 W CONROE, TX 77304-3539</t>
+  </si>
+  <si>
+    <t>TECH24551</t>
+  </si>
+  <si>
+    <t>NORTHPARK</t>
+  </si>
+  <si>
+    <t>24551 LOOP 494  KINGWOOD, TX 77339-1549</t>
+  </si>
+  <si>
+    <t>TECH25192</t>
+  </si>
+  <si>
+    <t>RAYFORD</t>
+  </si>
+  <si>
+    <t>25192 INTERSTATE 45 SPRING, TX 77386-1496</t>
+  </si>
+  <si>
+    <t>TECH3103</t>
+  </si>
+  <si>
+    <t>ALDINE NEW</t>
+  </si>
+  <si>
+    <t>3103 FM 1960 RD W HUMBLE, TX 77338-3382</t>
+  </si>
+  <si>
+    <t>TECH320</t>
+  </si>
+  <si>
+    <t>RANKIN</t>
+  </si>
+  <si>
+    <t>320 W RANKIN RD HOUSTON, TX 77090-6947</t>
+  </si>
+  <si>
+    <t>TECH32823</t>
+  </si>
+  <si>
+    <t>MAGNOLIA</t>
+  </si>
+  <si>
+    <t>32823 FM 2978 RD MAGNOLIA, TX 77354-6060</t>
+  </si>
+  <si>
+    <t>TECH406</t>
+  </si>
+  <si>
+    <t>CONROE</t>
+  </si>
+  <si>
+    <t>406 S FRAZIER ST CONROE, TX 77301-5007</t>
+  </si>
+  <si>
+    <t>TECH4705</t>
+  </si>
+  <si>
+    <t>FM1960</t>
+  </si>
+  <si>
+    <t>4705 FM 1960 RD W HOUSTON, TX 77069-4647</t>
+  </si>
+  <si>
+    <t>TECH5101</t>
+  </si>
+  <si>
+    <t>5101 BINGLE RD</t>
+  </si>
+  <si>
+    <t>5101 BINGLE RD HOUSTON, TX 77092-3103</t>
+  </si>
+  <si>
+    <t>TECH5807</t>
+  </si>
+  <si>
+    <t>LYONS #2</t>
+  </si>
+  <si>
+    <t>5807 LYONS  AVE HOUSTON, TX 77020-4833</t>
+  </si>
+  <si>
+    <t>TECH6007</t>
+  </si>
+  <si>
+    <t>NEW TEK CELL SPRING</t>
+  </si>
+  <si>
+    <t>6007 FM 2920 RD SPRING, TX 77379-2543</t>
+  </si>
+  <si>
+    <t>TECH7404</t>
+  </si>
+  <si>
+    <t>7404 AIRLINE</t>
+  </si>
+  <si>
+    <t>7404  AIRLINE DR HOUSTON, TX 77076-1069</t>
+  </si>
+  <si>
+    <t>TECH7850</t>
+  </si>
+  <si>
+    <t>LEE ROAD</t>
+  </si>
+  <si>
+    <t>7850 FM 1960 BYPASS RD, W HUMBLE, TX 77338-4071</t>
+  </si>
+  <si>
+    <t>TECH850</t>
+  </si>
+  <si>
+    <t>RED OAK</t>
+  </si>
+  <si>
+    <t>850 CYPRESS CREEK PKWY  HOUSTON, TX 77090-3418</t>
+  </si>
+  <si>
+    <t>TECH10001</t>
+  </si>
+  <si>
+    <t>WEST BELLFORT ST</t>
+  </si>
+  <si>
+    <t>10001 W BELLFORT ST HOUSTON, TX 77031-2559</t>
+  </si>
+  <si>
+    <t>TECH10508</t>
+  </si>
+  <si>
+    <t>BLUEBELL</t>
+  </si>
+  <si>
+    <t>10508 AIRLINE DR HOUSTON, TX 77037-1263</t>
+  </si>
+  <si>
+    <t>TECH12670</t>
+  </si>
+  <si>
+    <t>BISSONNET ST</t>
+  </si>
+  <si>
+    <t>12670 BISSONNET  ST HOUSTON, TX 77099-1337</t>
+  </si>
+  <si>
+    <t>TECH13535</t>
+  </si>
+  <si>
+    <t>SOUTH POST OAK</t>
+  </si>
+  <si>
+    <t>13535 S POST OAK RD HOUSTON, TX 77045-4007</t>
+  </si>
+  <si>
+    <t>TECH2220</t>
+  </si>
+  <si>
+    <t>2220 PARKER</t>
+  </si>
+  <si>
+    <t>2220 PARKER RD HOUSTON, TX 77093-5257</t>
+  </si>
+  <si>
+    <t>TECH3219</t>
+  </si>
+  <si>
+    <t>HILLCROFT</t>
+  </si>
+  <si>
+    <t>3219 HILLCROFT  ST HOUSTON, TX 77057-5805</t>
+  </si>
+  <si>
+    <t>TECH4700</t>
+  </si>
+  <si>
+    <t>N MAIN ST</t>
+  </si>
+  <si>
+    <t>4700 N MAIN ST HOUSTON, TX 77009-4411</t>
+  </si>
+  <si>
+    <t>TECH4920</t>
+  </si>
+  <si>
+    <t>IRVINGTON BLVD</t>
+  </si>
+  <si>
+    <t>4920 IRVINGTON BLVD HOUSTON, TX 77009-2778</t>
+  </si>
+  <si>
+    <t>TECH5716</t>
+  </si>
+  <si>
+    <t>5716 CHIMNEY ROCK</t>
+  </si>
+  <si>
+    <t>5716 CHIMNEY ROCK RD HOUSTON, TX 77081-2713</t>
+  </si>
+  <si>
+    <t>TECH5858</t>
+  </si>
+  <si>
+    <t>S GESSNER</t>
+  </si>
+  <si>
+    <t>5858 S GESSNER RD HOUSTON, TX 77036-2647</t>
+  </si>
+  <si>
+    <t>TECH5930</t>
+  </si>
+  <si>
+    <t>RENWICK DR</t>
+  </si>
+  <si>
+    <t>5930 RENWICK DR HOUSTON, TX 77081-2439</t>
+  </si>
+  <si>
+    <t>TECH7330</t>
+  </si>
+  <si>
+    <t>7330 SOUTHWEST FRWY</t>
+  </si>
+  <si>
+    <t>7330 SOUTHWEST  FRWY, HOUSTON, TX 77074</t>
+  </si>
+  <si>
+    <t>TECH8107</t>
+  </si>
+  <si>
+    <t>8107 AIRLINE</t>
+  </si>
+  <si>
+    <t>8107 AIRLINE DR HOUSTON, TX 77037-4105</t>
+  </si>
+  <si>
+    <t>TECH920</t>
+  </si>
+  <si>
+    <t>WEST LITTLE YORK</t>
+  </si>
+  <si>
+    <t>920 E LITTLE YORK RD SUITE 400 HOUSTON, TX 77076-1232</t>
+  </si>
+  <si>
+    <t>TECH1010</t>
+  </si>
+  <si>
+    <t>S MASON RD</t>
+  </si>
+  <si>
+    <t>1010 S MASON RD KATY, TX 77450-3930</t>
+  </si>
+  <si>
+    <t>TECH10307</t>
+  </si>
+  <si>
+    <t>10307 CULLEN</t>
+  </si>
+  <si>
+    <t>10307 CULLEN BLVD HOUSTON, TX 77047-1141</t>
+  </si>
+  <si>
+    <t>TECH1401</t>
+  </si>
+  <si>
+    <t>FREEPORT</t>
+  </si>
+  <si>
+    <t>1401 N BRAZOSPORT BLVD FREEPORT, TX 77541-3536</t>
+  </si>
+  <si>
+    <t>TECH2519</t>
+  </si>
+  <si>
+    <t>BAY CITY</t>
+  </si>
+  <si>
+    <t>2519 7TH ST BAY CITY, TX 77414-5315</t>
+  </si>
+  <si>
+    <t>TECH3341</t>
+  </si>
+  <si>
+    <t>3341 TELEPHONE RD</t>
+  </si>
+  <si>
+    <t>3341 TELEPHONE RD HOUSTON, TX 77023-5400</t>
+  </si>
+  <si>
+    <t>TECH3703</t>
+  </si>
+  <si>
+    <t>EL CAMPO</t>
+  </si>
+  <si>
+    <t>3703 FM 2765 RD, EL CAMPO, TX 77437-6399</t>
+  </si>
+  <si>
+    <t>TECH5160</t>
+  </si>
+  <si>
+    <t>FRANZ RD</t>
+  </si>
+  <si>
+    <t>5160 FRANZ RD KATY, TX 77493-1763</t>
+  </si>
+  <si>
+    <t>TECH5627</t>
+  </si>
+  <si>
+    <t>ALDINE BENDER RD</t>
+  </si>
+  <si>
+    <t>5627 ALDINE BENDER RD HOUSTON, TX 77032-4534</t>
+  </si>
+  <si>
+    <t>TECH5808</t>
+  </si>
+  <si>
+    <t>NEW BELLFORT</t>
+  </si>
+  <si>
+    <t>5808 BELLFORT ST HOUSTON, TX 77033-2144</t>
+  </si>
+  <si>
+    <t>TECH6348</t>
+  </si>
+  <si>
+    <t>6348 TELEPHONE RD</t>
+  </si>
+  <si>
+    <t>6348 TELEPHONE RD HOUSTON, TX 77087-5458</t>
+  </si>
+  <si>
+    <t>TECH6464</t>
+  </si>
+  <si>
+    <t>BINGLE</t>
+  </si>
+  <si>
+    <t>6464 W LITTLE YORK RD HOUSTON, TX 77091-1124</t>
+  </si>
+  <si>
+    <t>TECH7006</t>
+  </si>
+  <si>
+    <t>GULF BANK RD</t>
+  </si>
+  <si>
+    <t>7006 W GULF BANK RD HOUSTON, TX 77040-3903</t>
+  </si>
+  <si>
+    <t>TECH8205</t>
+  </si>
+  <si>
+    <t>NEW CULLEN</t>
+  </si>
+  <si>
+    <t>8205 CULLEN BLVD HOUSTON, TX 77051-2017</t>
+  </si>
+  <si>
+    <t>TECH8416</t>
+  </si>
+  <si>
+    <t>BROADWAY</t>
+  </si>
+  <si>
+    <t>8416  BROADWAY ST PEARLAND, TX 77584-7883</t>
+  </si>
+  <si>
+    <t>TECH8511</t>
+  </si>
+  <si>
+    <t>SCOTT</t>
+  </si>
+  <si>
+    <t>8511 SCOTT ST HOUSTON, TX 77051-2417</t>
+  </si>
+  <si>
+    <t>TECH9530</t>
+  </si>
+  <si>
+    <t>9530 HOMESTEAD RD</t>
+  </si>
+  <si>
+    <t>9530 HOMESTEAD RD HOUSTON, TX 77016-4424</t>
+  </si>
+  <si>
+    <t>TECH1304</t>
+  </si>
+  <si>
+    <t>1304 W FOOTHILL BLVD-IIG -371</t>
+  </si>
+  <si>
+    <t>1304 W Foothill Blvd Ste F ,Rialto ,CA -92376-4666</t>
+  </si>
+  <si>
+    <t>TECH16120</t>
+  </si>
+  <si>
+    <t>16120 VALLEY-IIG -422</t>
+  </si>
+  <si>
+    <t>16120 Valley Blvd  Ste 3   Fontana  CA   92335-7813</t>
+  </si>
+  <si>
+    <t>TECH1641W</t>
+  </si>
+  <si>
+    <t>1641 W HOLT-IIG -642</t>
+  </si>
+  <si>
+    <t>1641 W Holt Ave,Pomona,CA -91768-3341</t>
+  </si>
+  <si>
+    <t>TECH16990</t>
+  </si>
+  <si>
+    <t>16990 FOOTHILL BLVD-IIG -371</t>
+  </si>
+  <si>
+    <t>16990 Foothill  Blvd  Ste A   Fontana CA 92335-3591</t>
+  </si>
+  <si>
+    <t>TECH176</t>
+  </si>
+  <si>
+    <t>176 E BASE LINE-IIG-375</t>
+  </si>
+  <si>
+    <t>176 E Base Line Rd,Rialto ,CA - 92376-3607</t>
+  </si>
+  <si>
+    <t>TECH1788</t>
+  </si>
+  <si>
+    <t>1788 UNIVERSITY AVE-CN-650</t>
+  </si>
+  <si>
+    <t>1788 University Ave Ste 112, Riverside, CA 92507</t>
+  </si>
+  <si>
+    <t>TECH283</t>
+  </si>
+  <si>
+    <t>283 W FOOTHILL-IIG -441</t>
+  </si>
+  <si>
+    <t>283 W Foothill Blvd Ste B   Rialto CA  92376-5073</t>
+  </si>
+  <si>
+    <t>TECH326</t>
+  </si>
+  <si>
+    <t>326 E HOLT BLVD-IIG -555</t>
+  </si>
+  <si>
+    <t>326 E Holt Blvd Ste C ,Ontario ,CA - 91761-1635</t>
+  </si>
+  <si>
+    <t>TECH34366</t>
+  </si>
+  <si>
+    <t>34366 YUCAIPA BLVD-MBM-367</t>
+  </si>
+  <si>
+    <t>34366 YUCAIPA BLVD STE B - YUCAIPA, CA 92399</t>
+  </si>
+  <si>
+    <t>TECH3992</t>
+  </si>
+  <si>
+    <t>3992 N SIERRA WAY-MBM-439</t>
+  </si>
+  <si>
+    <t>3992 N SIERRA WAY STE A - SAN BERNARDINO, CA 92405</t>
+  </si>
+  <si>
+    <t>TECH562</t>
+  </si>
+  <si>
+    <t>562 W HOLT BLVD-IIG-615</t>
+  </si>
+  <si>
+    <t>562 W Holt Blvd Ste A1 ,Ontario ,CA - 91762-3708</t>
+  </si>
+  <si>
+    <t>TECH9719</t>
+  </si>
+  <si>
+    <t>9719 SIERRA-IIG -795</t>
+  </si>
+  <si>
+    <t>9719  Sierra  Ave   Fontana  CA  92335-6716</t>
+  </si>
+  <si>
+    <t>TECH1136</t>
+  </si>
+  <si>
+    <t>1136 N MOUNT VERNON-IIG -919</t>
+  </si>
+  <si>
+    <t>1136 N Mount Vernon Ave Ste 102   San Bernardino CA  92411-2280</t>
+  </si>
+  <si>
+    <t>TECH1200</t>
+  </si>
+  <si>
+    <t>1200 E HIGHLAND AVE-MBM-491</t>
+  </si>
+  <si>
+    <t>1200 E HIGHLAND AVE STE I - SAN BERNARDINO, CA 92404</t>
+  </si>
+  <si>
+    <t>TECH19402</t>
+  </si>
+  <si>
+    <t>19042 LA PUENTE RD-SYS-300</t>
+  </si>
+  <si>
+    <t>19042 LA PUENTE RD - WEST COVINA, CA 91792</t>
+  </si>
+  <si>
+    <t>TECH2094W</t>
+  </si>
+  <si>
+    <t>2094 W REDLANDS BLVD-MBM-329</t>
+  </si>
+  <si>
+    <t>2094 W REDLANDS BLVD - REDLANDS, CA 92373</t>
+  </si>
+  <si>
+    <t>TECH2252</t>
+  </si>
+  <si>
+    <t>2252 S EUCLID AVE-MBM-416</t>
+  </si>
+  <si>
+    <t>2252 S EUCLID AVE STE D - ONTARIO, CA 91762</t>
+  </si>
+  <si>
+    <t>TECH25021</t>
+  </si>
+  <si>
+    <t>25021 MADISON-IIG -331</t>
+  </si>
+  <si>
+    <t>25021 Madison Ave Ste 102,Murrieta, CA -92562-8957</t>
+  </si>
+  <si>
+    <t>TECH275</t>
+  </si>
+  <si>
+    <t>275 E 9TH-IIG -775</t>
+  </si>
+  <si>
+    <t>275 E  9th St Ste E   San Bernardino  CA  92410-4400</t>
+  </si>
+  <si>
+    <t>TECH30141</t>
+  </si>
+  <si>
+    <t>30141 ANTELOPE RD-IIG -167</t>
+  </si>
+  <si>
+    <t>30141 Antelope Rd Ste H,Menifee, CA - 92584-8066</t>
+  </si>
+  <si>
+    <t>TECH4594</t>
+  </si>
+  <si>
+    <t>4594 UNIVERSITY PKWY-MBM-349</t>
+  </si>
+  <si>
+    <t>4594 UNIVERSITY PKWY STE B - SAN BERNARDINO, CA 92407</t>
+  </si>
+  <si>
+    <t>TECH537</t>
+  </si>
+  <si>
+    <t>537 S AZUSA WAY-SYS-1000</t>
+  </si>
+  <si>
+    <t>537 S AZUSA WAY - LA  PUENTE, CA 91744</t>
+  </si>
+  <si>
+    <t>TECH620</t>
+  </si>
+  <si>
+    <t>620 E 6TH ST-WPS-450</t>
+  </si>
+  <si>
+    <t>620 E 6th St Ste 104, Corona,CA 92879</t>
+  </si>
+  <si>
+    <t>TECH625</t>
+  </si>
+  <si>
+    <t>625 S RIVERSIDE-IIG -389</t>
+  </si>
+  <si>
+    <t>625 S Riverside Ave Ste K   Rialto CA 92376-7072</t>
+  </si>
+  <si>
+    <t>TECH727</t>
+  </si>
+  <si>
+    <t>727 W HIGHLAND-IIG -442</t>
+  </si>
+  <si>
+    <t>727 W Highland Ave ,San Bernardino ,CA - 92405-3838</t>
+  </si>
+  <si>
+    <t>TECH944</t>
+  </si>
+  <si>
+    <t>944 WEST 6TH STREET UNIT # 101</t>
+  </si>
+  <si>
+    <t>944 WEST 6TH STREET UNIT # 101,CORONA,,CA,92882</t>
+  </si>
+  <si>
+    <t>TECH14910</t>
+  </si>
+  <si>
+    <t>14910 PERRIS BLVD STE F</t>
+  </si>
+  <si>
+    <t>14910 Perris Blvd Ste F Moreno Valley, CA 92553-7181 US</t>
+  </si>
+  <si>
+    <t>TECH1667</t>
+  </si>
+  <si>
+    <t>1667 E SIXTH ST STE B</t>
+  </si>
+  <si>
+    <t>1667 E Sixth St Ste B Beaumont, CA 92223 US</t>
+  </si>
+  <si>
+    <t>TECH1675</t>
+  </si>
+  <si>
+    <t>1675 N PERRIS BLVD STE F3-4</t>
+  </si>
+  <si>
+    <t>1675 N Perris Blvd Ste F3-4 Perris, CA 92571-4726 US</t>
+  </si>
+  <si>
+    <t>TECH25073</t>
+  </si>
+  <si>
+    <t>25073 SUNNYMEAD BLVD STE D17</t>
+  </si>
+  <si>
+    <t>25073 Sunnymead Blvd Ste D17 Moreno Valley, CA 92553-4171 US</t>
+  </si>
+  <si>
+    <t>TECH685</t>
+  </si>
+  <si>
+    <t>685 W BASE LINE ST</t>
+  </si>
+  <si>
+    <t>685 W BASE LINE ST #M, SAN BERNARDINO, CA 92410</t>
+  </si>
+  <si>
+    <t>TECH85</t>
+  </si>
+  <si>
+    <t>85 RAMONA EXPY STE 8</t>
+  </si>
+  <si>
+    <t>85 Ramona Expy Ste 8 Perris, CA 92571-7014 US</t>
+  </si>
+  <si>
+    <t>TECH10970</t>
+  </si>
+  <si>
+    <t>10970 SHERMAN WAY-SYS-700</t>
+  </si>
+  <si>
+    <t>10970  SHERMAN WAY  STE 107 - BURBANK, CA 91505</t>
+  </si>
+  <si>
+    <t>TECH13003</t>
+  </si>
+  <si>
+    <t>13003 VAN NUYS BLVD-ARC-1500</t>
+  </si>
+  <si>
+    <t>13003 Van Nuys Blvd, Ste J,  Pacoima, CA 91331-8320</t>
+  </si>
+  <si>
+    <t>TECH13310</t>
+  </si>
+  <si>
+    <t>13310 VICTORY BLVD-MBM-463</t>
+  </si>
+  <si>
+    <t>13310 VICTORY BLVD - VAN NUYS, CA 91401</t>
+  </si>
+  <si>
+    <t>TECH13841</t>
+  </si>
+  <si>
+    <t>13841 FOOTHILL BLVD</t>
+  </si>
+  <si>
+    <t>13841 FOOTHILL BLVD - SYLMAR, CA 91342</t>
+  </si>
+  <si>
+    <t>TECH15421</t>
+  </si>
+  <si>
+    <t>15421 PARTHENIA ST-ARC-1200</t>
+  </si>
+  <si>
+    <t>15421 Parthenia St, North hills, CA 91343</t>
+  </si>
+  <si>
+    <t>TECH19725</t>
+  </si>
+  <si>
+    <t>19725 VANOWEN ST-MBM-403</t>
+  </si>
+  <si>
+    <t>19725 VANOWEN ST, SUITE 4 - WINNETKA, CA 91306</t>
+  </si>
+  <si>
+    <t>TECH20143</t>
+  </si>
+  <si>
+    <t>20143 SATICOY ST-MBM-519</t>
+  </si>
+  <si>
+    <t>20143 SATICOY ST - WINNETKA, CA 91306</t>
+  </si>
+  <si>
+    <t>TECH6584</t>
+  </si>
+  <si>
+    <t>6584 VAN NUYS BLVD -C MO-450</t>
+  </si>
+  <si>
+    <t>6584 Van Nuys Blvd,Van Nuys Van Nuys, CA 91401</t>
+  </si>
+  <si>
+    <t>TECH6742</t>
+  </si>
+  <si>
+    <t>6742 SEPULVEDA BLVD-C MO-400</t>
+  </si>
+  <si>
+    <t>6742 Sepulveda  Blvd, von New Van Nuys,CA 91411</t>
+  </si>
+  <si>
+    <t>TECH6800</t>
+  </si>
+  <si>
+    <t>6800 RESEDA BLVD-C MO-400</t>
+  </si>
+  <si>
+    <t>6800 Reseda Blvd Ste C,Reseda,CA 91335</t>
+  </si>
+  <si>
+    <t>TECH7550</t>
+  </si>
+  <si>
+    <t>7550 TAMPA AVE</t>
+  </si>
+  <si>
+    <t>7550 TAMPA AVENUE, STE A - RESEDA, CA 91335</t>
+  </si>
+  <si>
+    <t>TECH8424</t>
+  </si>
+  <si>
+    <t>8424 SUNLAND BLVD</t>
+  </si>
+  <si>
+    <t>8424 SUNLAND BLVD - SUNVALLEY, CA 91352</t>
+  </si>
+  <si>
+    <t>TECH9070</t>
+  </si>
+  <si>
+    <t>9070 VAN NUYS-IIG COR-1580</t>
+  </si>
+  <si>
+    <t>9070 VAN NUYS PANORAMA CITY, CA 91402</t>
+  </si>
+  <si>
+    <t>TECH9767</t>
+  </si>
+  <si>
+    <t>9767 LAUREL CANYON BLVD-MBM-819</t>
+  </si>
+  <si>
+    <t>9767 LAUREL CANYON BLVD - PACOIMA, CA 91331</t>
+  </si>
+  <si>
+    <t>TECH10721</t>
+  </si>
+  <si>
+    <t>10721 ATLANTICIIG-IIG COR-644</t>
+  </si>
+  <si>
+    <t>10721 ATLANTIC AVE LYNWOOD, CA 90262</t>
+  </si>
+  <si>
+    <t>TECH1130</t>
+  </si>
+  <si>
+    <t>1130 S BRISTOL-IIG -999</t>
+  </si>
+  <si>
+    <t>1130 S Bristol St   Santa Ana CA  92704-3420</t>
+  </si>
+  <si>
+    <t>TECH12144</t>
+  </si>
+  <si>
+    <t>12144 CARSON ST-IIG -552</t>
+  </si>
+  <si>
+    <t>12144 CARSON ST,STE B   HAWAIIAN GARDENS CA  90716-1184</t>
+  </si>
+  <si>
+    <t>TECH1221N</t>
+  </si>
+  <si>
+    <t>1221 N TUSTIN</t>
+  </si>
+  <si>
+    <t>1221 N TUSTIN, ORANGE COUNTY, CA 92867</t>
+  </si>
+  <si>
+    <t>TECH13058</t>
+  </si>
+  <si>
+    <t>13058 CHAPMAN AVE-CK-650</t>
+  </si>
+  <si>
+    <t>13058 CHAPMAN AVE - GARDEN GROVE, CA 92840</t>
+  </si>
+  <si>
+    <t>TECH13191</t>
+  </si>
+  <si>
+    <t>13191 HARBOR-IIG -785</t>
+  </si>
+  <si>
+    <t>13191 Harbor Blvd   Garden Grove CA 92843-1717</t>
+  </si>
+  <si>
+    <t>TECH1525</t>
+  </si>
+  <si>
+    <t>1525 W 1ST-IIG -775</t>
+  </si>
+  <si>
+    <t>1525 W 1st St Ste B   Santa Ana CA 92703-3600</t>
+  </si>
+  <si>
+    <t>TECH1909</t>
+  </si>
+  <si>
+    <t>1909 E LA PALMA AVE-ME-550</t>
+  </si>
+  <si>
+    <t>1909 E LA  PALMA  AVE - ANAHEIM, CA 92805</t>
+  </si>
+  <si>
+    <t>TECH205</t>
+  </si>
+  <si>
+    <t>205 E ORANGETHORPE-IIG COR-561</t>
+  </si>
+  <si>
+    <t>205 E ORANGETHORPE AVE FULLERTON, CA 92832</t>
+  </si>
+  <si>
+    <t>TECH2118</t>
+  </si>
+  <si>
+    <t>2118 W 7TH-IIG COR-1403</t>
+  </si>
+  <si>
+    <t>2118 W 7TH STREET LOS ANGELES,CA 90057</t>
+  </si>
+  <si>
+    <t>TECH2547</t>
+  </si>
+  <si>
+    <t>2547 W MCFADDEN-IIG -577</t>
+  </si>
+  <si>
+    <t>2547 W McFadden Ave Ste B   Santa Ana CA  92704-2717</t>
+  </si>
+  <si>
+    <t>TECH33955</t>
+  </si>
+  <si>
+    <t>33955B DOHENY PARK-IIG COR-252</t>
+  </si>
+  <si>
+    <t>33955B DOHENY PARK ROAD SAN JUAN CAPISTRANO, CA 92675</t>
+  </si>
+  <si>
+    <t>TECH3505</t>
+  </si>
+  <si>
+    <t>3505 E CHAPMAN AVE</t>
+  </si>
+  <si>
+    <t>3505 E CHAPMAN AVE - ORANGE, CA 92869</t>
+  </si>
+  <si>
+    <t>TECH431</t>
+  </si>
+  <si>
+    <t>431 E 1ST ST STE G</t>
+  </si>
+  <si>
+    <t>431 E 1st St STE G, Santa Ana, CA 92701</t>
+  </si>
+  <si>
+    <t>TECH124</t>
+  </si>
+  <si>
+    <t>124 W ANAHEIM ST</t>
+  </si>
+  <si>
+    <t>124 W ANAHEIM ST, WILMINGTON, CA 90744</t>
+  </si>
+  <si>
+    <t>TECH1752</t>
+  </si>
+  <si>
+    <t>1752 W SLAUSON AVE # B</t>
+  </si>
+  <si>
+    <t>1752 W SLAUSON AVE #B, LOS ANGELES, CA 90047</t>
+  </si>
+  <si>
+    <t>TECH7219</t>
+  </si>
+  <si>
+    <t>7219 S FIGUEROA ST</t>
+  </si>
+  <si>
+    <t>7219 S FIGUEROA ST, LOS ANGELES, CA 90003</t>
+  </si>
+  <si>
+    <t>TECH1578</t>
+  </si>
+  <si>
+    <t>GETWELL RD</t>
+  </si>
+  <si>
+    <t>1578 GETWELL RD MEMPHIS, TN 38111-7118</t>
+  </si>
+  <si>
+    <t>TECH2780</t>
+  </si>
+  <si>
+    <t>PERKINS</t>
+  </si>
+  <si>
+    <t>2780 S PERKINS RD MEMPHIS, TN 38118-2431</t>
+  </si>
+  <si>
+    <t>TECH3421</t>
+  </si>
+  <si>
+    <t>3421 AUSTIN PEAY</t>
+  </si>
+  <si>
+    <t>3421 AUSTIN PEAY HWY MEMPHIS, TN 38128-3801</t>
+  </si>
+  <si>
+    <t>TECH3633</t>
+  </si>
+  <si>
+    <t>HICKORY</t>
+  </si>
+  <si>
+    <t>3633 HICKORY HILL RD MEMPHIS, TN 38115-5010</t>
+  </si>
+  <si>
+    <t>TECH3912</t>
+  </si>
+  <si>
+    <t>PARK AVE</t>
+  </si>
+  <si>
+    <t>3912 PARK AVE  MEMPHIS, TN 38111-6635</t>
+  </si>
+  <si>
+    <t>TECH3954</t>
+  </si>
+  <si>
+    <t>3954 JACKSON</t>
+  </si>
+  <si>
+    <t>3954 JACKSON AVE MEMPHIS, TN 38128-6671</t>
+  </si>
+  <si>
+    <t>TECH4205</t>
+  </si>
+  <si>
+    <t>SUMMER AVE</t>
+  </si>
+  <si>
+    <t>4205 SUMMER AVE MEMPHIS, TN 38122-4022</t>
+  </si>
+  <si>
+    <t>TECH4222</t>
+  </si>
+  <si>
+    <t>4222 WINCHESTER ROAD</t>
+  </si>
+  <si>
+    <t>4222 WINCHESTER RD MEMPHIS, TN 38118-5054</t>
+  </si>
+  <si>
+    <t>TECH4308</t>
+  </si>
+  <si>
+    <t>4308 MACON</t>
+  </si>
+  <si>
+    <t>4308 MACON RD MEMPHIS, TN 38122-4810</t>
+  </si>
+  <si>
+    <t>TECH4565</t>
+  </si>
+  <si>
+    <t>QUINCE</t>
+  </si>
+  <si>
+    <t>4565 QUINCE RD MEMPHIS, TN 38117-6517</t>
+  </si>
+  <si>
+    <t>TECH4730</t>
+  </si>
+  <si>
+    <t>4730 RIVERDALE</t>
+  </si>
+  <si>
+    <t>4730 RIVERDALE RD MEMPHIS, TN 38141-8583</t>
+  </si>
+  <si>
+    <t>TECH5349</t>
+  </si>
+  <si>
+    <t>5349 WINCHESTER</t>
+  </si>
+  <si>
+    <t>5349 WINCHESTER RD MEMPHIS, TN 38115-4566</t>
+  </si>
+  <si>
+    <t>TECH6200</t>
+  </si>
+  <si>
+    <t>KNIGHT</t>
+  </si>
+  <si>
+    <t>6200 KNIGHT ARNOLD ROAD EXT MEMPHIS, TN 38115-3050</t>
+  </si>
+  <si>
+    <t>TECH7444</t>
+  </si>
+  <si>
+    <t>7444 WINCHESTER</t>
+  </si>
+  <si>
+    <t>7444 WINCHESTER RD MEMPHIS, TN 38125-2206</t>
+  </si>
+  <si>
+    <t>TECH1411</t>
+  </si>
+  <si>
+    <t>1411 GOODMAN</t>
+  </si>
+  <si>
+    <t>1411 GOODMAN RD W HORN LAKE, MS 38637-1402</t>
+  </si>
+  <si>
+    <t>TECH1700E</t>
+  </si>
+  <si>
+    <t>HOLMES</t>
+  </si>
+  <si>
+    <t>1700 E HOLMES RD MEMPHIS, TN 38116-9108</t>
+  </si>
+  <si>
+    <t>TECH1948</t>
+  </si>
+  <si>
+    <t>1948 S 3RD ST</t>
+  </si>
+  <si>
+    <t>1948 S 3RD ST MEMPHIS, TN 38109-7706</t>
+  </si>
+  <si>
+    <t>TECH215</t>
+  </si>
+  <si>
+    <t>SHELBY</t>
+  </si>
+  <si>
+    <t>215 E SHELBY DR MEMPHIS, TN 38109-8521</t>
+  </si>
+  <si>
+    <t>TECH2246</t>
+  </si>
+  <si>
+    <t>2246 LAMAR</t>
+  </si>
+  <si>
+    <t>2246 LAMAR AVE MEMPHIS, TN 38114-6608</t>
+  </si>
+  <si>
+    <t>TECH2990</t>
+  </si>
+  <si>
+    <t>2990 LAMAR</t>
+  </si>
+  <si>
+    <t>2990 LAMAR AVE MEMPHIS, TN 38114-5609</t>
+  </si>
+  <si>
+    <t>TECH3052</t>
+  </si>
+  <si>
+    <t>3052 GOODMAN</t>
+  </si>
+  <si>
+    <t>3052 GOODMAN RD W HORN LAKE, MS 38637-1104</t>
+  </si>
+  <si>
+    <t>TECH3247</t>
+  </si>
+  <si>
+    <t>3247 S 3RD ST</t>
+  </si>
+  <si>
+    <t>3247 S 3RD ST MEMPHIS, TN 38109-2943</t>
+  </si>
+  <si>
+    <t>TECH4082</t>
+  </si>
+  <si>
+    <t>4082 ELVIS PRESLEY</t>
+  </si>
+  <si>
+    <t>4082 ELVIS PRESLEY BLVD MEMPHIS, TN 38116-5827</t>
+  </si>
+  <si>
+    <t>TECH4474</t>
+  </si>
+  <si>
+    <t>NEW 3RD</t>
+  </si>
+  <si>
+    <t>4474 S 3RD ST MEMPHIS, TN 38109-5218</t>
+  </si>
+  <si>
+    <t>TECH450</t>
+  </si>
+  <si>
+    <t>450 STATELINE</t>
+  </si>
+  <si>
+    <t>450 STATELINE RD W SOUTHAVEN, MS 38671-1606</t>
+  </si>
+  <si>
+    <t>TECH903</t>
+  </si>
+  <si>
+    <t>JACKSON AVE</t>
+  </si>
+  <si>
+    <t>903 JACKSON AVE MEMPHIS, TN 38107-4016</t>
+  </si>
+  <si>
+    <t>TECH964</t>
+  </si>
+  <si>
+    <t>CRUMP</t>
+  </si>
+  <si>
+    <t>964 E EH CRUMP BLVD MEMPHIS, TN 38104-6279</t>
+  </si>
+  <si>
+    <t>TECH1084</t>
+  </si>
+  <si>
+    <t>1084 N HOLLYWOOD</t>
+  </si>
+  <si>
+    <t>1084 N HOLLYWOOD ST MEMPHIS, TN 38108-3115</t>
+  </si>
+  <si>
+    <t>TECH1101</t>
+  </si>
+  <si>
+    <t>1101 S BELLEVUE</t>
+  </si>
+  <si>
+    <t>1101 S BELLEVUE BLVD MEMPHIS, TN 38106-2344</t>
+  </si>
+  <si>
+    <t>TECH1700</t>
+  </si>
+  <si>
+    <t>UNION CITY</t>
+  </si>
+  <si>
+    <t>1700 W REELFOOT AVE UNION CITY, TN 38261-5547</t>
+  </si>
+  <si>
+    <t>TECH1935</t>
+  </si>
+  <si>
+    <t>DYERSBURG</t>
+  </si>
+  <si>
+    <t>1935 SAINT  JOHN AVE DYERSBURG, TN 38024-2132</t>
+  </si>
+  <si>
+    <t>TECH2094</t>
+  </si>
+  <si>
+    <t>2094 FRAYSER</t>
+  </si>
+  <si>
+    <t>2094  FRAYSER  BLVD MEMPHIS, TN 38127-5620</t>
+  </si>
+  <si>
+    <t>TECH2240</t>
+  </si>
+  <si>
+    <t>2240 ELVIS PRESLEY</t>
+  </si>
+  <si>
+    <t>2240 ELVIS PRESLEY BLVD MEMPHIS, TN 38106-7726</t>
+  </si>
+  <si>
+    <t>TECH2664</t>
+  </si>
+  <si>
+    <t>HOLLYWOOD</t>
+  </si>
+  <si>
+    <t>2664 N HOLLYWOOD ST MEMPHIS, TN 38127-8804</t>
+  </si>
+  <si>
+    <t>TECH2688</t>
+  </si>
+  <si>
+    <t>2688 FRAYSER</t>
+  </si>
+  <si>
+    <t>2688 FRAYSER BLVD MEMPHIS, TN 38127-4833</t>
+  </si>
+  <si>
+    <t>TECH2944</t>
+  </si>
+  <si>
+    <t>2944 COVINGTON PIKE</t>
+  </si>
+  <si>
+    <t>2944 COVINGTON PIKE MEMPHIS, TN 38128-6007</t>
+  </si>
+  <si>
+    <t>TECH3530</t>
+  </si>
+  <si>
+    <t>RAMILL</t>
+  </si>
+  <si>
+    <t>3530 RAMILL RD MEMPHIS, TN 38128-3300</t>
+  </si>
+  <si>
+    <t>TECH376</t>
+  </si>
+  <si>
+    <t>CLEVELAND</t>
+  </si>
+  <si>
+    <t>376 N CLEVELAND ST MEMPHIS, TN 38104-7139</t>
+  </si>
+  <si>
+    <t>TECH4673</t>
+  </si>
+  <si>
+    <t>4673 ELVIS PRESLEY</t>
+  </si>
+  <si>
+    <t>4673 ELVIS PRESLEY BLVD MEMPHIS, TN 38116-7139</t>
+  </si>
+  <si>
+    <t>TECH7193</t>
+  </si>
+  <si>
+    <t>STAGE RD</t>
+  </si>
+  <si>
+    <t>7193 STAGE RD MEMPHIS, TN 38133-4981</t>
+  </si>
+  <si>
+    <t>TECH8043</t>
+  </si>
+  <si>
+    <t>MILLINGTON</t>
+  </si>
+  <si>
+    <t>8043 US HIGHWAY 51 N MILLINGTON, TN 38053-1730</t>
+  </si>
+  <si>
+    <t>TECH955</t>
+  </si>
+  <si>
+    <t>N PARKWAY</t>
+  </si>
+  <si>
+    <t>955 N PARKWAY JACKSON, TN 38305-4512</t>
+  </si>
+  <si>
+    <t>TECH121B</t>
+  </si>
+  <si>
+    <t>121B SE BROAD ST</t>
+  </si>
+  <si>
+    <t>121B SE Broad St Murfreesboro, TN 37130 US</t>
+  </si>
+  <si>
+    <t>TECH1312</t>
+  </si>
+  <si>
+    <t>1312 MEMORIAL BLVD STE F</t>
+  </si>
+  <si>
+    <t>1312 Memorial Blvd  Ste  F Murfreesboro, TN 37129  US</t>
+  </si>
+  <si>
+    <t>TECH2801</t>
+  </si>
+  <si>
+    <t>2801 CLIFTON AVE</t>
+  </si>
+  <si>
+    <t>2801 CLIFTON AVE - NASHVILLE,TN	37209 TN	37209</t>
+  </si>
+  <si>
+    <t>TECH2874</t>
+  </si>
+  <si>
+    <t>2874 S RUTHERFORD BLVD STE A-4</t>
+  </si>
+  <si>
+    <t>2874 S  Rutherford Blvd Ste  A-4 Murfreesboro, TN 37130  US</t>
+  </si>
+  <si>
+    <t>TECH298</t>
+  </si>
+  <si>
+    <t>298 SAM RIDLEY PKWY E STE 130</t>
+  </si>
+  <si>
+    <t>298 Sam Ridley Pkwy E Ste 130 Smyrna, TN 37167  US</t>
+  </si>
+  <si>
+    <t>TECH3039</t>
+  </si>
+  <si>
+    <t>3039 BRICK CHURCH PIKE</t>
+  </si>
+  <si>
+    <t>3039 BRICK CHURCH PIKE STE A -NASHVILLE ,TN 37207</t>
+  </si>
+  <si>
+    <t>TECH3041</t>
+  </si>
+  <si>
+    <t>3041 DICKERSON PIKE</t>
+  </si>
+  <si>
+    <t>3041 DICKERSON PIKE STE G2-NASHVILLE ,TN  37207</t>
+  </si>
+  <si>
+    <t>TECH3405</t>
+  </si>
+  <si>
+    <t>3405 GALLATIN PIKE</t>
+  </si>
+  <si>
+    <t>3405 GALLATIN PIKE STE C - NASHVILLE ,TN 37216</t>
+  </si>
+  <si>
+    <t>TECH3503</t>
+  </si>
+  <si>
+    <t>3503 NOLENSVILLE PIKE</t>
+  </si>
+  <si>
+    <t>3503 NOLENSVILLE PIKE -NASHVILLE ,TN 37211</t>
+  </si>
+  <si>
+    <t>TECH932</t>
+  </si>
+  <si>
+    <t>932 RICHARDS RD</t>
+  </si>
+  <si>
+    <t>932 RICHARDS RD  - ANTIOCH ,TN  37013</t>
+  </si>
+  <si>
+    <t>TECH97B</t>
+  </si>
+  <si>
+    <t>97B WALLACE RD STE 2</t>
+  </si>
+  <si>
+    <t>97B Wallace Rd Ste 2 Nashville, TN 37211 US</t>
+  </si>
+  <si>
+    <t>TMP2403</t>
+  </si>
+  <si>
+    <t>NOLENSVILLE PIKE</t>
+  </si>
+  <si>
+    <t>2403 NOLENSVILLE PIKE NASHVILLE, TN 37211-2186</t>
+  </si>
+  <si>
+    <t>TMP3928</t>
+  </si>
+  <si>
+    <t>LEBANON PIKE</t>
+  </si>
+  <si>
+    <t>3928 LEBANON PIKE HERMITAGE, TN 37076-2012</t>
+  </si>
+  <si>
+    <t>TECH131</t>
+  </si>
+  <si>
+    <t>131 SUNSET</t>
+  </si>
+  <si>
+    <t>131 SUNSET AVE STE C - SUISUN CITY, CA 94585</t>
+  </si>
+  <si>
+    <t>TECH1319</t>
+  </si>
+  <si>
+    <t>1319 TRAVIS</t>
+  </si>
+  <si>
+    <t>1319 TRAVIS BLVD - FAIRFIELD, CA 94533</t>
+  </si>
+  <si>
+    <t>TECH1651</t>
+  </si>
+  <si>
+    <t>1651 TENNESSEE</t>
+  </si>
+  <si>
+    <t>1651 TENNESSEE ST - VALLEJO, CA 94590</t>
+  </si>
+  <si>
+    <t>TECH2136</t>
+  </si>
+  <si>
+    <t>2136 SPRINGS</t>
+  </si>
+  <si>
+    <t>2136 SPRINGS RD - VALLEJO, CA 94591</t>
+  </si>
+  <si>
+    <t>TECH2202</t>
+  </si>
+  <si>
+    <t>2202 W TEXAS</t>
+  </si>
+  <si>
+    <t>2202 W TEXAS ST - FAIRFIELD, CA 94533</t>
+  </si>
+  <si>
+    <t>TECH2255</t>
+  </si>
+  <si>
+    <t>2255 TENNESSEE ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2255 TENNESSEE ST,STE 2, VALLEJO, CA, 94591        </t>
+  </si>
+  <si>
+    <t>TECH2750</t>
+  </si>
+  <si>
+    <t>2750 N TEXAS</t>
+  </si>
+  <si>
+    <t>2750 N TEXAS ST STE 300 - FAIRFIELD, CA 94533</t>
+  </si>
+  <si>
+    <t>TECH3315</t>
+  </si>
+  <si>
+    <t>3315 SONOMA</t>
+  </si>
+  <si>
+    <t>3315 SONOMA BLVD STE 70 - VALLEJO, CA 94590</t>
+  </si>
+  <si>
+    <t>TECH3845</t>
+  </si>
+  <si>
+    <t>3845 SONOMA</t>
+  </si>
+  <si>
+    <t>3845 SONOMA BLVD - VALLEJO, CA 94589</t>
+  </si>
+  <si>
+    <t>TECH555</t>
+  </si>
+  <si>
+    <t>555 SEBASTOPOL RD</t>
+  </si>
+  <si>
+    <t>555 SEBASTOPOL RD STE B - SANTA ROSA, CA 95407</t>
+  </si>
+  <si>
+    <t>TECH748</t>
+  </si>
+  <si>
+    <t>748 ADMIRAL CALLAGHAN</t>
+  </si>
+  <si>
+    <t>748 ADMIRAL CALLAGHAN LN - VALLEJO, CA 94591</t>
+  </si>
+  <si>
+    <t>TECH750</t>
+  </si>
+  <si>
+    <t>750 STONY POINT RD</t>
+  </si>
+  <si>
+    <t>750 STONY POINT  RD STE A150 - SANTA ROSA, CA 95407</t>
+  </si>
+  <si>
+    <t>TECH1231</t>
+  </si>
+  <si>
+    <t>ROCKY MOUNT</t>
+  </si>
+  <si>
+    <t>1231 Cobb Corners Dr Rocky Mount, NC 27804-2530 US</t>
+  </si>
+  <si>
+    <t>TECH1600</t>
+  </si>
+  <si>
+    <t>NEW HOPE</t>
+  </si>
+  <si>
+    <t>1600 Ronald Dr #103, Raleigh, NC 27609</t>
+  </si>
+  <si>
+    <t>TECH1603</t>
+  </si>
+  <si>
+    <t>GUESS RD</t>
+  </si>
+  <si>
+    <t>1603 GUESS RD DURHAM, NC 27701-1129</t>
+  </si>
+  <si>
+    <t>TECH1620</t>
+  </si>
+  <si>
+    <t>MARTIN LUTHER KING JR BLVD</t>
+  </si>
+  <si>
+    <t>1620 MARTIN LUTHER KING JR BLVD - RALEIGH, NC 27610</t>
+  </si>
+  <si>
+    <t>TECH205G</t>
+  </si>
+  <si>
+    <t>GREENVILLE</t>
+  </si>
+  <si>
+    <t>205 Greenville Blvd SW #100 Greenville, NC 27834 US</t>
+  </si>
+  <si>
+    <t>TECH2301</t>
+  </si>
+  <si>
+    <t>HOLLOWAY</t>
+  </si>
+  <si>
+    <t>2301 HOLLOWAY ST DURHAM, NC 27703-3315</t>
+  </si>
+  <si>
+    <t>TECH2721</t>
+  </si>
+  <si>
+    <t>S SAUNDERS ST</t>
+  </si>
+  <si>
+    <t>2721 S SAUNDERS ST - RALEIGH, NC 27603</t>
+  </si>
+  <si>
+    <t>TECH2823</t>
+  </si>
+  <si>
+    <t>SANFORD</t>
+  </si>
+  <si>
+    <t>2823 S HORNER BLVD SANFORD, NC 27332-8037</t>
+  </si>
+  <si>
+    <t>TECH3110</t>
+  </si>
+  <si>
+    <t>NEW BERN AVE</t>
+  </si>
+  <si>
+    <t>3110 NEW BERN AVE STE 120 - RALEIGH, NC 27610</t>
+  </si>
+  <si>
+    <t>TECH3281</t>
+  </si>
+  <si>
+    <t>AVENT FERRY RD</t>
+  </si>
+  <si>
+    <t>3281 AVENT FERRY RD STE 125 - RALEIGH, NC 27606</t>
+  </si>
+  <si>
+    <t>TECH3438</t>
+  </si>
+  <si>
+    <t>HILLSBOROUGH RD</t>
+  </si>
+  <si>
+    <t>3438 HILLSBOROUGH RD DURHAM, NC 27705-3049</t>
+  </si>
+  <si>
+    <t>TECH421</t>
+  </si>
+  <si>
+    <t>CHAPANOKE RD</t>
+  </si>
+  <si>
+    <t>421 CHAPANOKE RD STE 167 - RALEIGH, NC 27603</t>
+  </si>
+  <si>
+    <t>TECH4551</t>
+  </si>
+  <si>
+    <t>NEW BERN</t>
+  </si>
+  <si>
+    <t>4551 New Bern Ave, Ste 120 Raleigh, NC 27610 US</t>
+  </si>
+  <si>
+    <t>TECH4554</t>
+  </si>
+  <si>
+    <t>CAPITAL</t>
+  </si>
+  <si>
+    <t>4554 Capital Blvd Raleigh, NC 27604-4353 US</t>
+  </si>
+  <si>
+    <t>TECH4731</t>
+  </si>
+  <si>
+    <t>APEX</t>
+  </si>
+  <si>
+    <t>4731 NC HIGHWAY 55 DURHAM, NC 27713-2256</t>
+  </si>
+  <si>
+    <t>TECH6574</t>
+  </si>
+  <si>
+    <t>GLENWOOD AVE</t>
+  </si>
+  <si>
+    <t>6574 GLENWOOD AVE - RALEIGH, NC 27612</t>
+  </si>
+  <si>
+    <t>TECH704</t>
+  </si>
+  <si>
+    <t>JUDD PKWY</t>
+  </si>
+  <si>
+    <t>704 N JUDD PKWY NE STE 140 - FUQUAY VARINA, NC 27526</t>
+  </si>
+  <si>
+    <t>TECH7137</t>
+  </si>
+  <si>
+    <t>KNIGHTDALE BLVD</t>
+  </si>
+  <si>
+    <t>7137 KNIGHTDALE BLVD STE D - KNIGHTDALE, NC 27545</t>
+  </si>
+  <si>
+    <t>TECH107</t>
+  </si>
+  <si>
+    <t>107 S. ROSE AVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107 S. ROSE AVE,OXNARD,CA93030	</t>
+  </si>
+  <si>
+    <t>TECH217</t>
+  </si>
+  <si>
+    <t>217 W PLEASANT VALLEY RD</t>
+  </si>
+  <si>
+    <t>217 W PLEASANT VALLEY RD,OXNARD,CA93033</t>
+  </si>
+  <si>
+    <t>TECH2400</t>
+  </si>
+  <si>
+    <t>2400 SAVIERS RD</t>
+  </si>
+  <si>
+    <t>2400 SAVIERS RD STE 104,OXNARD,CA 93033</t>
+  </si>
+  <si>
+    <t>TECH2604</t>
+  </si>
+  <si>
+    <t>2604 S VENTURA RD</t>
+  </si>
+  <si>
+    <t>2604 S VENTURA RD,OXNARD,CA 93033</t>
+  </si>
+  <si>
+    <t>TECH2647</t>
+  </si>
+  <si>
+    <t>2647 E VINEYARD AVE</t>
+  </si>
+  <si>
+    <t>2647 E VINEYARD AVE,OXNARD,CA 93036</t>
+  </si>
+  <si>
+    <t>TECH919</t>
+  </si>
+  <si>
+    <t>919 E MAIN ST</t>
+  </si>
+  <si>
+    <t>919 E MAIN ST,SANTA PAULA,CA	93060</t>
+  </si>
+  <si>
+    <t>TECH9434</t>
+  </si>
+  <si>
+    <t>9434 TELEPHONE RD</t>
+  </si>
+  <si>
+    <t>9434 TELEPHONE RD,VENTURA,CA 93004</t>
+  </si>
+  <si>
+    <t>TECH400</t>
+  </si>
+  <si>
+    <t>400 S A ST</t>
+  </si>
+  <si>
+    <t>400 S A St Oxnard, CA 93030 US</t>
+  </si>
+  <si>
+    <t>TECH1823</t>
+  </si>
+  <si>
+    <t>1823 E PALMDALE BLVD</t>
+  </si>
+  <si>
+    <t>1823 E PALMDALE BLVD STE G,PALMDALE,CA	93550</t>
+  </si>
+  <si>
+    <t>TECH27574</t>
+  </si>
+  <si>
+    <t>27574 SIERRA</t>
+  </si>
+  <si>
+    <t>27574 SIERRA HWY,CANYON COUNTRY,CA 91351</t>
+  </si>
+  <si>
+    <t>TECH38024</t>
+  </si>
+  <si>
+    <t>38024 47TH</t>
+  </si>
+  <si>
+    <t>38024 47TH ST E,PALMDALE,CA	93552</t>
+  </si>
+  <si>
+    <t>TECH1010S</t>
+  </si>
+  <si>
+    <t>1010 SPERRY AVE</t>
+  </si>
+  <si>
+    <t>1010 Sperry Ave, Ste B, Patterson, CA 95363-9297</t>
+  </si>
+  <si>
+    <t>TECH1105</t>
+  </si>
+  <si>
+    <t>1105 W MAIN ST</t>
+  </si>
+  <si>
+    <t>1105 W Main St, Merced, CA 95340-4522</t>
+  </si>
+  <si>
+    <t>TECH1108</t>
+  </si>
+  <si>
+    <t>1108 WATERLOO RD</t>
+  </si>
+  <si>
+    <t>1108 Waterloo Rd Ste 4 Stockton, CA-95205</t>
+  </si>
+  <si>
+    <t>TECH115</t>
+  </si>
+  <si>
+    <t>115 E DORSET DR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115 E Dorset Dr, Ste A, Dixon, CA 95620 </t>
+  </si>
+  <si>
+    <t>TECH1166</t>
+  </si>
+  <si>
+    <t>1166 N MAIN ST</t>
+  </si>
+  <si>
+    <t>1166 N MAIN ST - MANTECA, CA 95336</t>
+  </si>
+  <si>
+    <t>TECH1178</t>
+  </si>
+  <si>
+    <t>1178 E YOSEMITE</t>
+  </si>
+  <si>
+    <t>1178 E Yosemite Avenue, Manteca CA 95336</t>
+  </si>
+  <si>
+    <t>TECH1260</t>
+  </si>
+  <si>
+    <t>1260 W OLIVE AVE</t>
+  </si>
+  <si>
+    <t>1260 W Olive Ave, Merced, CA 95348-1662</t>
+  </si>
+  <si>
+    <t>TECH149</t>
+  </si>
+  <si>
+    <t>149 S WILSON WAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149 S Wilson Way, Stockton, CA 95205 </t>
+  </si>
+  <si>
+    <t>TECH1500</t>
+  </si>
+  <si>
+    <t>1500 W EL CAMINO</t>
+  </si>
+  <si>
+    <t>1500 W El Camino Ave Ste 2, Sacramento, CA 95833</t>
+  </si>
+  <si>
+    <t>TECH1545</t>
+  </si>
+  <si>
+    <t>1545 MEADOWVIEW RD</t>
+  </si>
+  <si>
+    <t>1545 Meadowview Rd, Ste 120, Sacramento, CA 95832</t>
+  </si>
+  <si>
+    <t>TECH1611</t>
+  </si>
+  <si>
+    <t>1611 DOUGLAS</t>
+  </si>
+  <si>
+    <t>1611 Douglas Blvd, Ste B Roseville, CA 95661</t>
+  </si>
+  <si>
+    <t>TECH1619</t>
+  </si>
+  <si>
+    <t>1619 E HAMMER LN</t>
+  </si>
+  <si>
+    <t>1619 E Hammer Ln, Stockton, CA, 95210</t>
+  </si>
+  <si>
+    <t>TECH1930</t>
+  </si>
+  <si>
+    <t>1930 YOSEMITE</t>
+  </si>
+  <si>
+    <t>1930 Yosemite Pkwy a, Merced, CA 95340, USA</t>
+  </si>
+  <si>
+    <t>TECH2422</t>
+  </si>
+  <si>
+    <t>2422 DEL PASO BLVD</t>
+  </si>
+  <si>
+    <t>2422 Del Paso Blvd, Sacramento, CA 95815</t>
+  </si>
+  <si>
+    <t>TECH3000</t>
+  </si>
+  <si>
+    <t>3000 MCHENRY</t>
+  </si>
+  <si>
+    <t>3000 McHenry Ave # 8, Modesto, CA 95350, United States</t>
+  </si>
+  <si>
+    <t>TECH4321</t>
+  </si>
+  <si>
+    <t>4321 MADISON AVE</t>
+  </si>
+  <si>
+    <t>4321 Madison Ave, Ste C, Sacramento, CA 95842-3502</t>
+  </si>
+  <si>
+    <t>TECH4641</t>
+  </si>
+  <si>
+    <t>4641 WATT AVE</t>
+  </si>
+  <si>
+    <t>4641 WATT AVE - NORTH HIGHLANDS, CA 95660</t>
+  </si>
+  <si>
+    <t>TECH7235</t>
+  </si>
+  <si>
+    <t>7235 FRANKLIN BLVD</t>
+  </si>
+  <si>
+    <t>7235 Franklin Blvd, Sacramento, CA 95823-2472</t>
+  </si>
+  <si>
+    <t>TECH8007</t>
+  </si>
+  <si>
+    <t>8007 FLORIN RD</t>
+  </si>
+  <si>
+    <t>8007 Florin Rd, Sacramento, CA 95828</t>
+  </si>
+  <si>
+    <t>TECH8451</t>
+  </si>
+  <si>
+    <t>8451 ELK GROVE</t>
+  </si>
+  <si>
+    <t>8451 ELK GROVE BLVD SUITE 8 - ELK GROVE, CA 95758</t>
+  </si>
+  <si>
+    <t>TECH101</t>
+  </si>
+  <si>
+    <t>101 N HIGHLAND AVE STE A</t>
+  </si>
+  <si>
+    <t>101 N HIGHLAND AVE STE A, NATIONAL CITY, CA 91950</t>
+  </si>
+  <si>
+    <t>TECH12328</t>
+  </si>
+  <si>
+    <t>12328 POWAY RD</t>
+  </si>
+  <si>
+    <t>12328 POWAY RD, POWAY, CA 92064</t>
+  </si>
+  <si>
+    <t>TECH3166</t>
+  </si>
+  <si>
+    <t>3166 MIDWAY DR STE 105</t>
+  </si>
+  <si>
+    <t>3166 MIDWAY DR STE 105, SAN DIEGO, CA 92110</t>
+  </si>
+  <si>
+    <t>TECH3549</t>
+  </si>
+  <si>
+    <t>3549 UNIVERSITY AVE</t>
+  </si>
+  <si>
+    <t>3549 UNIVERSITY AVE , SAN DIEGO, CA 92104</t>
+  </si>
+  <si>
+    <t>TECH416</t>
+  </si>
+  <si>
+    <t>416 W SAN YSIDRO BLVD STE H</t>
+  </si>
+  <si>
+    <t>416 W SAN YSIDRO BLVD STE H, SAN YSIDRO, CA 92173</t>
+  </si>
+  <si>
+    <t>TECH903B</t>
+  </si>
+  <si>
+    <t>903 BROADWAY</t>
+  </si>
+  <si>
+    <t>903 BROADWAY, EL CAJON, CA 92021</t>
+  </si>
+  <si>
+    <t>TECH1111</t>
+  </si>
+  <si>
+    <t>1111 MARKET ST</t>
+  </si>
+  <si>
+    <t>1111 Market St, San Francisco,CA 94103</t>
+  </si>
+  <si>
+    <t>TECH130</t>
+  </si>
+  <si>
+    <t>130 S B ST</t>
+  </si>
+  <si>
+    <t>130 S B St, San Mateo, CA 94401, United States</t>
+  </si>
+  <si>
+    <t>TECH1490</t>
+  </si>
+  <si>
+    <t>1490 FILLMORE ST</t>
+  </si>
+  <si>
+    <t>1490 Fillmore St, San Francisco, CA 94115</t>
+  </si>
+  <si>
+    <t>TECH201B</t>
+  </si>
+  <si>
+    <t>201B TURK ST</t>
+  </si>
+  <si>
+    <t>201B Turk St San Francisco, CA 94080</t>
+  </si>
+  <si>
+    <t>TECH2062</t>
+  </si>
+  <si>
+    <t>2062 MISSION ST</t>
+  </si>
+  <si>
+    <t>2062 Mission St San Francisco, CA 94110</t>
+  </si>
+  <si>
+    <t>TECH2380</t>
+  </si>
+  <si>
+    <t>2380 MISSION</t>
+  </si>
+  <si>
+    <t>2380 MISSION ST - SAN FRANCISCO, CA 94110</t>
+  </si>
+  <si>
+    <t>TECH3004</t>
+  </si>
+  <si>
+    <t>3004 24TH ST</t>
+  </si>
+  <si>
+    <t>3004 24TH ST SAN FRANCISCO, CA  94110</t>
+  </si>
+  <si>
+    <t>TECH381</t>
+  </si>
+  <si>
+    <t>381 GRAND AVE</t>
+  </si>
+  <si>
+    <t>381 Grand Ave,South San Francisco,CA 94080</t>
+  </si>
+  <si>
+    <t>TECH4730M</t>
+  </si>
+  <si>
+    <t>4730 MISSION ST</t>
+  </si>
+  <si>
+    <t>4730 Mission St,San Francisco,CA 94112</t>
+  </si>
+  <si>
+    <t>TECH900V</t>
+  </si>
+  <si>
+    <t>900 VAN NESS</t>
+  </si>
+  <si>
+    <t>900 VAN NESS AVENUE #101 - SAN FRANCISCO, CA 94109</t>
+  </si>
+  <si>
+    <t>TECH923</t>
+  </si>
+  <si>
+    <t>923 MARKET ST</t>
+  </si>
+  <si>
+    <t>923 Market St, San Francisco,CA 94103-1750</t>
+  </si>
+  <si>
+    <t>TECH308</t>
+  </si>
+  <si>
+    <t>308 W WALNUT AVE</t>
+  </si>
+  <si>
+    <t>308 W Walnut Ave Dalton, GA 30720 US</t>
+  </si>
+  <si>
+    <t>TECH8053</t>
+  </si>
+  <si>
+    <t>8053 TARA BLVD STE B</t>
+  </si>
+  <si>
+    <t>8053 Tara Blvd Ste B Jonesboro, GA 30236 US</t>
+  </si>
+  <si>
+    <t>TECH2100</t>
+  </si>
+  <si>
+    <t>2100 RIVERSIDE PKWY STE 111</t>
+  </si>
+  <si>
+    <t>2100 Riverside Pkwy Ste 111 Lawrenceville, GA 30043 US</t>
+  </si>
+  <si>
+    <t>TECH2899</t>
+  </si>
+  <si>
+    <t>2899 N DECATUR RD STE C</t>
+  </si>
+  <si>
+    <t>2899 N Decatur Rd Ste C Decatur, GA 30033 US</t>
+  </si>
+  <si>
+    <t>TECH3231</t>
+  </si>
+  <si>
+    <t>3231 S COBB DR SE STE B</t>
+  </si>
+  <si>
+    <t>3231 S Cobb Dr SE Ste B Smyrna, GA 30080 US</t>
+  </si>
+  <si>
+    <t>TECH7050</t>
+  </si>
+  <si>
+    <t>7050 JIMMY CARTER BLVD STE 121JJ</t>
+  </si>
+  <si>
+    <t>7050 Jimmy Carter Blvd Ste 121JJ Norcross, GA 30092 US</t>
+  </si>
+  <si>
+    <t>TECH736</t>
+  </si>
+  <si>
+    <t>736 PONCE DE LEON AVE NE STE C</t>
+  </si>
+  <si>
+    <t>736 Ponce de Leon Ave NE Ste C Atlanta, GA 30306 US</t>
+  </si>
+  <si>
+    <t>TECH9425</t>
+  </si>
+  <si>
+    <t>9425 HWY WEST 92 STE 190</t>
+  </si>
+  <si>
+    <t>9425 Hwy West 92 Ste 190 Woodstock, GA 30188 US</t>
+  </si>
+  <si>
+    <t>TECH4737</t>
+  </si>
+  <si>
+    <t>4737 JONESBORO RD STE 30</t>
+  </si>
+  <si>
+    <t>4737 Jonesboro Rd Ste 30 Union City, GA 30291 US</t>
+  </si>
+  <si>
+    <t>TECH963</t>
+  </si>
+  <si>
+    <t>963 HIGHWAY 34 E STE C</t>
+  </si>
+  <si>
+    <t>963 Highway 34 E Ste C Newnan, GA 30265 US</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,8 +4158,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,8 +4217,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE10174"/>
+        <bgColor rgb="FFE10174"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -689,11 +4292,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -720,6 +4336,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1038,7 +4693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA88826-3AD9-4B3C-8D40-5BE6350BDE88}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -2094,10 +5749,4343 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F062FA4-D30B-4779-B9A9-C9715B6722AE}">
+  <dimension ref="A1:C392"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="C135" s="14" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="C136" s="14" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="C137" s="14" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C139" s="14" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="C140" s="14" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="C141" s="14" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="C142" s="14" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="C143" s="14" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="C151" s="14" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="15" t="s">
+        <v>627</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="C152" s="14" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="C154" s="14" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="C155" s="14" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="15" t="s">
+        <v>639</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="C156" s="14" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="C157" s="14" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="15" t="s">
+        <v>645</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="C158" s="14" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="C159" s="14" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="B161" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="C161" s="14" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="B162" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="C162" s="14" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="B163" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="C163" s="14" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="B164" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="C164" s="14" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="C165" s="14" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="B166" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="C166" s="14" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="B167" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="C167" s="14" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="15" t="s">
+        <v>675</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="C168" s="14" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="B169" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="C169" s="14" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="B170" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C170" s="14" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="15" t="s">
+        <v>684</v>
+      </c>
+      <c r="B171" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="C171" s="14" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="B172" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="C172" s="14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="B173" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="C173" s="14" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="B174" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="C174" s="14" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="B175" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="C175" s="14" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="B176" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="C176" s="14" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="15" t="s">
+        <v>702</v>
+      </c>
+      <c r="B177" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="C177" s="14" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="B178" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="C178" s="14" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="B179" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="C179" s="14" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="15" t="s">
+        <v>711</v>
+      </c>
+      <c r="B180" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="C180" s="14" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="B181" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="C181" s="14" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="15" t="s">
+        <v>717</v>
+      </c>
+      <c r="B182" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="C182" s="14" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="15" t="s">
+        <v>720</v>
+      </c>
+      <c r="B183" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="C183" s="14" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="B184" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="C184" s="14" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="B185" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="C185" s="14" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="B186" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="C186" s="14" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="16" t="s">
+        <v>732</v>
+      </c>
+      <c r="B187" s="17" t="s">
+        <v>733</v>
+      </c>
+      <c r="C187" s="17" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="16" t="s">
+        <v>735</v>
+      </c>
+      <c r="B188" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="C188" s="17" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="16" t="s">
+        <v>738</v>
+      </c>
+      <c r="B189" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="C189" s="17" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="16" t="s">
+        <v>741</v>
+      </c>
+      <c r="B190" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="C190" s="17" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="B191" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="C191" s="17" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="15" t="s">
+        <v>747</v>
+      </c>
+      <c r="B192" s="14" t="s">
+        <v>748</v>
+      </c>
+      <c r="C192" s="14" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="16" t="s">
+        <v>750</v>
+      </c>
+      <c r="B193" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="C193" s="17" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="16" t="s">
+        <v>753</v>
+      </c>
+      <c r="B194" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="C194" s="17" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="B195" s="14" t="s">
+        <v>757</v>
+      </c>
+      <c r="C195" s="14" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="B196" s="14" t="s">
+        <v>760</v>
+      </c>
+      <c r="C196" s="14" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="16" t="s">
+        <v>762</v>
+      </c>
+      <c r="B197" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="16" t="s">
+        <v>765</v>
+      </c>
+      <c r="B198" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="C198" s="17" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="16" t="s">
+        <v>768</v>
+      </c>
+      <c r="B199" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="C199" s="17" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="B200" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="C200" s="14" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="B201" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="C201" s="14" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="B202" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="C202" s="14" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="B203" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="C203" s="14" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="16" t="s">
+        <v>783</v>
+      </c>
+      <c r="B204" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="C204" s="17" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="16" t="s">
+        <v>786</v>
+      </c>
+      <c r="B205" s="17" t="s">
+        <v>787</v>
+      </c>
+      <c r="C205" s="17" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="16" t="s">
+        <v>789</v>
+      </c>
+      <c r="B206" s="17" t="s">
+        <v>790</v>
+      </c>
+      <c r="C206" s="17" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="B207" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="C207" s="14" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="B208" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="C208" s="14" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="B209" s="14" t="s">
+        <v>799</v>
+      </c>
+      <c r="C209" s="14" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="16" t="s">
+        <v>801</v>
+      </c>
+      <c r="B210" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="C210" s="17" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="16" t="s">
+        <v>804</v>
+      </c>
+      <c r="B211" s="17" t="s">
+        <v>805</v>
+      </c>
+      <c r="C211" s="17" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="16" t="s">
+        <v>807</v>
+      </c>
+      <c r="B212" s="17" t="s">
+        <v>808</v>
+      </c>
+      <c r="C212" s="17" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="B213" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="C213" s="14" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="15" t="s">
+        <v>813</v>
+      </c>
+      <c r="B214" s="14" t="s">
+        <v>814</v>
+      </c>
+      <c r="C214" s="14" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="B215" s="14" t="s">
+        <v>817</v>
+      </c>
+      <c r="C215" s="14" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="B216" s="14" t="s">
+        <v>820</v>
+      </c>
+      <c r="C216" s="14" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="B217" s="14" t="s">
+        <v>823</v>
+      </c>
+      <c r="C217" s="14" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="B218" s="14" t="s">
+        <v>826</v>
+      </c>
+      <c r="C218" s="14" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="15" t="s">
+        <v>828</v>
+      </c>
+      <c r="B219" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="C219" s="14" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="15" t="s">
+        <v>831</v>
+      </c>
+      <c r="B220" s="14" t="s">
+        <v>832</v>
+      </c>
+      <c r="C220" s="14" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="15" t="s">
+        <v>834</v>
+      </c>
+      <c r="B221" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="C221" s="14" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="16" t="s">
+        <v>837</v>
+      </c>
+      <c r="B222" s="17" t="s">
+        <v>838</v>
+      </c>
+      <c r="C222" s="17" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="B223" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="C223" s="14" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="15" t="s">
+        <v>843</v>
+      </c>
+      <c r="B224" s="14" t="s">
+        <v>844</v>
+      </c>
+      <c r="C224" s="14" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="15" t="s">
+        <v>846</v>
+      </c>
+      <c r="B225" s="14" t="s">
+        <v>847</v>
+      </c>
+      <c r="C225" s="14" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="15" t="s">
+        <v>849</v>
+      </c>
+      <c r="B226" s="14" t="s">
+        <v>850</v>
+      </c>
+      <c r="C226" s="14" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="15" t="s">
+        <v>852</v>
+      </c>
+      <c r="B227" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="C227" s="14" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="15" t="s">
+        <v>855</v>
+      </c>
+      <c r="B228" s="14" t="s">
+        <v>856</v>
+      </c>
+      <c r="C228" s="14" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="16" t="s">
+        <v>858</v>
+      </c>
+      <c r="B229" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="C229" s="17" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="16" t="s">
+        <v>861</v>
+      </c>
+      <c r="B230" s="17" t="s">
+        <v>862</v>
+      </c>
+      <c r="C230" s="17" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="B231" s="13" t="s">
+        <v>865</v>
+      </c>
+      <c r="C231" s="14" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="15" t="s">
+        <v>867</v>
+      </c>
+      <c r="B232" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="C232" s="14" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="B233" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="C233" s="14" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="16" t="s">
+        <v>873</v>
+      </c>
+      <c r="B234" s="17" t="s">
+        <v>874</v>
+      </c>
+      <c r="C234" s="17" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="16" t="s">
+        <v>876</v>
+      </c>
+      <c r="B235" s="17" t="s">
+        <v>877</v>
+      </c>
+      <c r="C235" s="17" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="16" t="s">
+        <v>879</v>
+      </c>
+      <c r="B236" s="17" t="s">
+        <v>880</v>
+      </c>
+      <c r="C236" s="17" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="15" t="s">
+        <v>882</v>
+      </c>
+      <c r="B237" s="14" t="s">
+        <v>883</v>
+      </c>
+      <c r="C237" s="14" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="16" t="s">
+        <v>885</v>
+      </c>
+      <c r="B238" s="17" t="s">
+        <v>886</v>
+      </c>
+      <c r="C238" s="17" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="16" t="s">
+        <v>888</v>
+      </c>
+      <c r="B239" s="17" t="s">
+        <v>889</v>
+      </c>
+      <c r="C239" s="17" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="15" t="s">
+        <v>891</v>
+      </c>
+      <c r="B240" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="C240" s="14" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="12" t="s">
+        <v>894</v>
+      </c>
+      <c r="B241" s="13" t="s">
+        <v>895</v>
+      </c>
+      <c r="C241" s="14" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="12" t="s">
+        <v>897</v>
+      </c>
+      <c r="B242" s="13" t="s">
+        <v>898</v>
+      </c>
+      <c r="C242" s="14" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="16" t="s">
+        <v>900</v>
+      </c>
+      <c r="B243" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="C243" s="17" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="12" t="s">
+        <v>903</v>
+      </c>
+      <c r="B244" s="13" t="s">
+        <v>904</v>
+      </c>
+      <c r="C244" s="14" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="16" t="s">
+        <v>906</v>
+      </c>
+      <c r="B245" s="17" t="s">
+        <v>907</v>
+      </c>
+      <c r="C245" s="17" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="16" t="s">
+        <v>909</v>
+      </c>
+      <c r="B246" s="17" t="s">
+        <v>910</v>
+      </c>
+      <c r="C246" s="17" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="15" t="s">
+        <v>912</v>
+      </c>
+      <c r="B247" s="14" t="s">
+        <v>913</v>
+      </c>
+      <c r="C247" s="14" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="15" t="s">
+        <v>915</v>
+      </c>
+      <c r="B248" s="14" t="s">
+        <v>916</v>
+      </c>
+      <c r="C248" s="14" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="15" t="s">
+        <v>918</v>
+      </c>
+      <c r="B249" s="14" t="s">
+        <v>919</v>
+      </c>
+      <c r="C249" s="14" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="15" t="s">
+        <v>921</v>
+      </c>
+      <c r="B250" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C250" s="14" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="15" t="s">
+        <v>924</v>
+      </c>
+      <c r="B251" s="14" t="s">
+        <v>925</v>
+      </c>
+      <c r="C251" s="14" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="15" t="s">
+        <v>927</v>
+      </c>
+      <c r="B252" s="14" t="s">
+        <v>928</v>
+      </c>
+      <c r="C252" s="14" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="15" t="s">
+        <v>930</v>
+      </c>
+      <c r="B253" s="14" t="s">
+        <v>931</v>
+      </c>
+      <c r="C253" s="14" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="15" t="s">
+        <v>933</v>
+      </c>
+      <c r="B254" s="14" t="s">
+        <v>934</v>
+      </c>
+      <c r="C254" s="14" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="15" t="s">
+        <v>936</v>
+      </c>
+      <c r="B255" s="14" t="s">
+        <v>937</v>
+      </c>
+      <c r="C255" s="14" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="15" t="s">
+        <v>939</v>
+      </c>
+      <c r="B256" s="14" t="s">
+        <v>940</v>
+      </c>
+      <c r="C256" s="14" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="15" t="s">
+        <v>942</v>
+      </c>
+      <c r="B257" s="14" t="s">
+        <v>943</v>
+      </c>
+      <c r="C257" s="14" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="15" t="s">
+        <v>945</v>
+      </c>
+      <c r="B258" s="14" t="s">
+        <v>946</v>
+      </c>
+      <c r="C258" s="14" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="15" t="s">
+        <v>948</v>
+      </c>
+      <c r="B259" s="14" t="s">
+        <v>949</v>
+      </c>
+      <c r="C259" s="14" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="15" t="s">
+        <v>951</v>
+      </c>
+      <c r="B260" s="14" t="s">
+        <v>952</v>
+      </c>
+      <c r="C260" s="14" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="15" t="s">
+        <v>954</v>
+      </c>
+      <c r="B261" s="14" t="s">
+        <v>955</v>
+      </c>
+      <c r="C261" s="14" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="15" t="s">
+        <v>957</v>
+      </c>
+      <c r="B262" s="14" t="s">
+        <v>958</v>
+      </c>
+      <c r="C262" s="14" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="15" t="s">
+        <v>960</v>
+      </c>
+      <c r="B263" s="14" t="s">
+        <v>961</v>
+      </c>
+      <c r="C263" s="14" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="15" t="s">
+        <v>963</v>
+      </c>
+      <c r="B264" s="14" t="s">
+        <v>964</v>
+      </c>
+      <c r="C264" s="14" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="15" t="s">
+        <v>966</v>
+      </c>
+      <c r="B265" s="14" t="s">
+        <v>967</v>
+      </c>
+      <c r="C265" s="14" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="B266" s="14" t="s">
+        <v>970</v>
+      </c>
+      <c r="C266" s="14" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="15" t="s">
+        <v>972</v>
+      </c>
+      <c r="B267" s="14" t="s">
+        <v>973</v>
+      </c>
+      <c r="C267" s="14" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="B268" s="14" t="s">
+        <v>976</v>
+      </c>
+      <c r="C268" s="14" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="15" t="s">
+        <v>978</v>
+      </c>
+      <c r="B269" s="14" t="s">
+        <v>979</v>
+      </c>
+      <c r="C269" s="14" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="15" t="s">
+        <v>981</v>
+      </c>
+      <c r="B270" s="14" t="s">
+        <v>982</v>
+      </c>
+      <c r="C270" s="14" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="15" t="s">
+        <v>984</v>
+      </c>
+      <c r="B271" s="14" t="s">
+        <v>985</v>
+      </c>
+      <c r="C271" s="14" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="15" t="s">
+        <v>987</v>
+      </c>
+      <c r="B272" s="14" t="s">
+        <v>988</v>
+      </c>
+      <c r="C272" s="14" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="15" t="s">
+        <v>990</v>
+      </c>
+      <c r="B273" s="14" t="s">
+        <v>991</v>
+      </c>
+      <c r="C273" s="14" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="15" t="s">
+        <v>993</v>
+      </c>
+      <c r="B274" s="14" t="s">
+        <v>994</v>
+      </c>
+      <c r="C274" s="14" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="15" t="s">
+        <v>996</v>
+      </c>
+      <c r="B275" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C275" s="14" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="15" t="s">
+        <v>999</v>
+      </c>
+      <c r="B276" s="14" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C276" s="14" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="15" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B277" s="14" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C277" s="14" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="20" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B278" s="20" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C278" s="20" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="20" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B279" s="20" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C279" s="20" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="20" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B280" s="20" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C280" s="20" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="20" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B281" s="20" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C281" s="20" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="20" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B282" s="20" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C282" s="20" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="20" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B283" s="20" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C283" s="20" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="20" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B284" s="20" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C284" s="20" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="20" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B285" s="20" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C285" s="20" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="20" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B286" s="20" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C286" s="20" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="20" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B287" s="20" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C287" s="20" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="20" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B288" s="20" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C288" s="20" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="20" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B289" s="20" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C289" s="20" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="20" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B290" s="20" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C290" s="20" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="20" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B291" s="20" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C291" s="20" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="20" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B292" s="20" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C292" s="20" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="20" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B293" s="20" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C293" s="20" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="21" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B294" s="21" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C294" s="21" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="20" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B295" s="20" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C295" s="20" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="20" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B296" s="20" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C296" s="20" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="21" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B297" s="21" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C297" s="21" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="21" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B298" s="21" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C298" s="21" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="21" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B299" s="21" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C299" s="21" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="21" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B300" s="21" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C300" s="21" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="21" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B301" s="21" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C301" s="21" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="20" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B302" s="20" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C302" s="20" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="20" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B303" s="20" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C303" s="20" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="20" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B304" s="20" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C304" s="20" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="21" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B305" s="21" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C305" s="21" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="21" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B306" s="21" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C306" s="21" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="21" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B307" s="21" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C307" s="21" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="21" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B308" s="21" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C308" s="21" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="21" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B309" s="21" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C309" s="21" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="21" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B310" s="21" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C310" s="21" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="21" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B311" s="21" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C311" s="21" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="21" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B312" s="22" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C312" s="21" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="21" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B313" s="21" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C313" s="21" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="20" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B314" s="20" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C314" s="20" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="21" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B315" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C315" s="21" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="20" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B316" s="20" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C316" s="20" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="20" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B317" s="20" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C317" s="20" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="20" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B318" s="20" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C318" s="20" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="20" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B319" s="20" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C319" s="20" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="20" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B320" s="20" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C320" s="20" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="20" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B321" s="20" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C321" s="20" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="20" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B322" s="20" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C322" s="20" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="20" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B323" s="20" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C323" s="20" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="20" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B324" s="20" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C324" s="20" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="20" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B325" s="20" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C325" s="20" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="20" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B326" s="20" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C326" s="20" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="20" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B327" s="20" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C327" s="20" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="20" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B328" s="20" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C328" s="20" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="20" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B329" s="20" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C329" s="20" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B330" s="20" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C330" s="20" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="20" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B331" s="20" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C331" s="20" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="20" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B332" s="20" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C332" s="20" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="20" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B333" s="20" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C333" s="20" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="20" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B334" s="20" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C334" s="20" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="21" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B335" s="21" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C335" s="21" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="21" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B336" s="21" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C336" s="21" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="21" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B337" s="21" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C337" s="21" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="21" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B338" s="21" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C338" s="21" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="21" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B339" s="21" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C339" s="21" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="21" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B340" s="21" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C340" s="21" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="21" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B341" s="21" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C341" s="21" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="21" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B342" s="21" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C342" s="21" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="21" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B343" s="21" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C343" s="21" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="21" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B344" s="21" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C344" s="21" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="21" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B345" s="21" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C345" s="21" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="20" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B346" s="20" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C346" s="20" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="20" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B347" s="20" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C347" s="20" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="20" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B348" s="20" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C348" s="20" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="21" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B349" s="21" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C349" s="21" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="20" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B350" s="20" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C350" s="20" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="21" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B351" s="21" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C351" s="21" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="20" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B352" s="20" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C352" s="20" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="21" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B353" s="21" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C353" s="21" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="20" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B354" s="20" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C354" s="20" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="21" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B355" s="21" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C355" s="21" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="21" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B356" s="21" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C356" s="21" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="21" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B357" s="21" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C357" s="21" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="21" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B358" s="21" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C358" s="21" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="20" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B359" s="20" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C359" s="20" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="21" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B360" s="21" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C360" s="21" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="20" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B361" s="20" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C361" s="20" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="21" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B362" s="21" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C362" s="21" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="20" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B363" s="20" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C363" s="20" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="20" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B364" s="20" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C364" s="20" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="21" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B365" s="21" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C365" s="21" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="20" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B366" s="20" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C366" s="20" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="20" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B367" s="20" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C367" s="20" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="20" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B368" s="20" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C368" s="20" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="20" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B369" s="20" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C369" s="20" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B370" s="20" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C370" s="20" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="20" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B371" s="20" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C371" s="20" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="20" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B372" s="20" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C372" s="20" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="21" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B373" s="21" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C373" s="21" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="21" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B374" s="21" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C374" s="21" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="20" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B375" s="20" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C375" s="20" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="20" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B376" s="20" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C376" s="20" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B377" s="21" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C377" s="21" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="20" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B378" s="20" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C378" s="20" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="20" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B379" s="20" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C379" s="20" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="20" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B380" s="20" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C380" s="20" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="21" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B381" s="21" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C381" s="21" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="20" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B382" s="20" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C382" s="20" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="20" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B383" s="20" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C383" s="20" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="20" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B384" s="20" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C384" s="20" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="20" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B385" s="20" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C385" s="20" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="20" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B386" s="20" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C386" s="20" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="20" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B387" s="20" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C387" s="20" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="20" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B388" s="20" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C388" s="20" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="20" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B389" s="20" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C389" s="20" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="20" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B390" s="20" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C390" s="20" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="20" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B391" s="20" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C391" s="20" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="20" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B392" s="20" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C392" s="20" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE16DD5C-1906-4134-A012-A38496CAD728}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
